--- a/results/aec.xlsx
+++ b/results/aec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benhermann/Research/artifact-survey/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7DBD18-8237-2C41-A70F-7D3178A8B223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50891FAC-E2F4-804E-B66C-5471F9BDBAFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="1460" windowWidth="27240" windowHeight="15740" xr2:uid="{E5024DD6-54D1-1549-8FC8-8CF96DD75F10}"/>
+    <workbookView xWindow="41920" yWindow="4740" windowWidth="27240" windowHeight="15740" xr2:uid="{E5024DD6-54D1-1549-8FC8-8CF96DD75F10}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1658</definedName>
     <definedName name="aec" localSheetId="0">Sheet1!$A$1:$J$1658</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -56,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9948" uniqueCount="2832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11516" uniqueCount="3183">
   <si>
     <t>First name</t>
   </si>
@@ -8552,13 +8555,1066 @@
   </si>
   <si>
     <t>anonymized</t>
+  </si>
+  <si>
+    <t>CGO 2020</t>
+  </si>
+  <si>
+    <t>Köpcke</t>
+  </si>
+  <si>
+    <t>Charith</t>
+  </si>
+  <si>
+    <t>Mendis</t>
+  </si>
+  <si>
+    <t>Clarke</t>
+  </si>
+  <si>
+    <t>Hariharan</t>
+  </si>
+  <si>
+    <t>Sandanagobalane</t>
+  </si>
+  <si>
+    <t>Nirmal</t>
+  </si>
+  <si>
+    <t>Prajapati</t>
+  </si>
+  <si>
+    <t>Roland</t>
+  </si>
+  <si>
+    <t>Daynauth</t>
+  </si>
+  <si>
+    <t>Chou</t>
+  </si>
+  <si>
+    <t>Koehler</t>
+  </si>
+  <si>
+    <t>Kohn</t>
+  </si>
+  <si>
+    <t>Yiping</t>
+  </si>
+  <si>
+    <t>Kathryn</t>
+  </si>
+  <si>
+    <t>Stolee</t>
+  </si>
+  <si>
+    <t>Subarno</t>
+  </si>
+  <si>
+    <t>Banerjee</t>
+  </si>
+  <si>
+    <t>Gemma</t>
+  </si>
+  <si>
+    <t>Catolino</t>
+  </si>
+  <si>
+    <t>Eleni</t>
+  </si>
+  <si>
+    <t>Constantinou</t>
+  </si>
+  <si>
+    <t>Cruz</t>
+  </si>
+  <si>
+    <t>James C.</t>
+  </si>
+  <si>
+    <t>Ayaan M.</t>
+  </si>
+  <si>
+    <t>Kazerouni</t>
+  </si>
+  <si>
+    <t>Mathew</t>
+  </si>
+  <si>
+    <t>Samim</t>
+  </si>
+  <si>
+    <t>Mirhosseini</t>
+  </si>
+  <si>
+    <t>Mitropoulos</t>
+  </si>
+  <si>
+    <t>Lloyd</t>
+  </si>
+  <si>
+    <t>Montgomery</t>
+  </si>
+  <si>
+    <t>Vivek</t>
+  </si>
+  <si>
+    <t>Nair</t>
+  </si>
+  <si>
+    <t>John-Paul</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Anand Ashok</t>
+  </si>
+  <si>
+    <t>Sawant</t>
+  </si>
+  <si>
+    <t>Tufano</t>
+  </si>
+  <si>
+    <t>FSE 2020</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>Yorgey</t>
+  </si>
+  <si>
+    <t>Justus</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Buch</t>
+  </si>
+  <si>
+    <t>Zilin</t>
+  </si>
+  <si>
+    <t>Aymeric</t>
+  </si>
+  <si>
+    <t>Fromherz</t>
+  </si>
+  <si>
+    <t>Jason Z.S.</t>
+  </si>
+  <si>
+    <t>Michael B.</t>
+  </si>
+  <si>
+    <t>Kastberg Hinrichsen</t>
+  </si>
+  <si>
+    <t>Lazarek</t>
+  </si>
+  <si>
+    <t>Georgy</t>
+  </si>
+  <si>
+    <t>Lukyanov</t>
+  </si>
+  <si>
+    <t>Munksgaard</t>
+  </si>
+  <si>
+    <t>Arjen</t>
+  </si>
+  <si>
+    <t>Rouvoet</t>
+  </si>
+  <si>
+    <t>Mallku Ernesto</t>
+  </si>
+  <si>
+    <t>Soldevila Raffa</t>
+  </si>
+  <si>
+    <t>Nachiappan</t>
+  </si>
+  <si>
+    <t>Valliappan</t>
+  </si>
+  <si>
+    <t>Van Strydonck</t>
+  </si>
+  <si>
+    <t>Vandenbroucke</t>
+  </si>
+  <si>
+    <t>Shu-Hung</t>
+  </si>
+  <si>
+    <t>You</t>
+  </si>
+  <si>
+    <t>de Castro Lopo</t>
+  </si>
+  <si>
+    <t>Birthe</t>
+  </si>
+  <si>
+    <t>van den Berg</t>
+  </si>
+  <si>
+    <t>ICFP 2020</t>
+  </si>
+  <si>
+    <t>Leandro</t>
+  </si>
+  <si>
+    <t>Minku</t>
+  </si>
+  <si>
+    <t>Marcio</t>
+  </si>
+  <si>
+    <t>Barros</t>
+  </si>
+  <si>
+    <t>Tanmay</t>
+  </si>
+  <si>
+    <t>Bhowmik</t>
+  </si>
+  <si>
+    <t>Cabral</t>
+  </si>
+  <si>
+    <t>Xuan Bach</t>
+  </si>
+  <si>
+    <t>D. Le</t>
+  </si>
+  <si>
+    <t>Giuseppe</t>
+  </si>
+  <si>
+    <t>Destefanis</t>
+  </si>
+  <si>
+    <t>Horkoff</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Krishna</t>
+  </si>
+  <si>
+    <t>Yepang</t>
+  </si>
+  <si>
+    <t>Mendez</t>
+  </si>
+  <si>
+    <t>Monperrus</t>
+  </si>
+  <si>
+    <t>Teresa Baldassarre</t>
+  </si>
+  <si>
+    <t>Sira</t>
+  </si>
+  <si>
+    <t>Vegas</t>
+  </si>
+  <si>
+    <t>Vogelsang</t>
+  </si>
+  <si>
+    <t>Hironori</t>
+  </si>
+  <si>
+    <t>Washizaki</t>
+  </si>
+  <si>
+    <t>ICSE 2020</t>
+  </si>
+  <si>
+    <t>Alencar Da Costa</t>
+  </si>
+  <si>
+    <t>Rody</t>
+  </si>
+  <si>
+    <t>Kersten</t>
+  </si>
+  <si>
+    <t>Ellen</t>
+  </si>
+  <si>
+    <t>Arteca</t>
+  </si>
+  <si>
+    <t>Cyrille</t>
+  </si>
+  <si>
+    <t>Artho</t>
+  </si>
+  <si>
+    <t>Tegan</t>
+  </si>
+  <si>
+    <t>Brennan</t>
+  </si>
+  <si>
+    <t>Bøgholm</t>
+  </si>
+  <si>
+    <t>Cordy</t>
+  </si>
+  <si>
+    <t>Bernard</t>
+  </si>
+  <si>
+    <t>van Gastel</t>
+  </si>
+  <si>
+    <t>Jiaping</t>
+  </si>
+  <si>
+    <t>Gui</t>
+  </si>
+  <si>
+    <t>Liana</t>
+  </si>
+  <si>
+    <t>Hadarean</t>
+  </si>
+  <si>
+    <t>Isberner</t>
+  </si>
+  <si>
+    <t>Rami Gökhan</t>
+  </si>
+  <si>
+    <t>Kıcı</t>
+  </si>
+  <si>
+    <t>Breno</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>Yannic</t>
+  </si>
+  <si>
+    <t>Noller</t>
+  </si>
+  <si>
+    <t>Chao</t>
+  </si>
+  <si>
+    <t>Van-Thuan</t>
+  </si>
+  <si>
+    <t>Pham</t>
+  </si>
+  <si>
+    <t>Pablo</t>
+  </si>
+  <si>
+    <t>Ponzio</t>
+  </si>
+  <si>
+    <t>Huascar</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Vaibhav</t>
+  </si>
+  <si>
+    <t>Stahlbauer</t>
+  </si>
+  <si>
+    <t>Alexi</t>
+  </si>
+  <si>
+    <t>Turcotte</t>
+  </si>
+  <si>
+    <t>Qi</t>
+  </si>
+  <si>
+    <t>Zang</t>
+  </si>
+  <si>
+    <t>ISSTA 2020</t>
+  </si>
+  <si>
+    <t>Huseyin</t>
+  </si>
+  <si>
+    <t>Ergin</t>
+  </si>
+  <si>
+    <t>MODELS 2020</t>
+  </si>
+  <si>
+    <t>Alves Pereira</t>
+  </si>
+  <si>
+    <t>Lorena</t>
+  </si>
+  <si>
+    <t>Arcega</t>
+  </si>
+  <si>
+    <t>Jaime</t>
+  </si>
+  <si>
+    <t>Font</t>
+  </si>
+  <si>
+    <t>Le Calvar</t>
+  </si>
+  <si>
+    <t>Rapos</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>Sallou</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>Arash</t>
+  </si>
+  <si>
+    <t>Alavi</t>
+  </si>
+  <si>
+    <t>Canino</t>
+  </si>
+  <si>
+    <t>Erin</t>
+  </si>
+  <si>
+    <t>Dahlgren</t>
+  </si>
+  <si>
+    <t>Fowler</t>
+  </si>
+  <si>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>Gommerstadt</t>
+  </si>
+  <si>
+    <t>Oqvist</t>
+  </si>
+  <si>
+    <t>Junqiao</t>
+  </si>
+  <si>
+    <t>Qiu</t>
+  </si>
+  <si>
+    <t>Matías</t>
+  </si>
+  <si>
+    <t>Toro</t>
+  </si>
+  <si>
+    <t>Vedurada</t>
+  </si>
+  <si>
+    <t>OOPSLA 2019</t>
+  </si>
+  <si>
+    <t>Møller</t>
+  </si>
+  <si>
+    <t>Maaz Bin Safeer</t>
+  </si>
+  <si>
+    <t>Dominik</t>
+  </si>
+  <si>
+    <t>Aumayr</t>
+  </si>
+  <si>
+    <t>Bavishi</t>
+  </si>
+  <si>
+    <t>Jose</t>
+  </si>
+  <si>
+    <t>Cambronero</t>
+  </si>
+  <si>
+    <t>Yanju</t>
+  </si>
+  <si>
+    <t>Jianyi</t>
+  </si>
+  <si>
+    <t>Saikat</t>
+  </si>
+  <si>
+    <t>Dutta</t>
+  </si>
+  <si>
+    <t>Gavran</t>
+  </si>
+  <si>
+    <t>Kaan</t>
+  </si>
+  <si>
+    <t>Genç</t>
+  </si>
+  <si>
+    <t>Aina Linn</t>
+  </si>
+  <si>
+    <t>Georges</t>
+  </si>
+  <si>
+    <t>Goel</t>
+  </si>
+  <si>
+    <t>Aviral</t>
+  </si>
+  <si>
+    <t>Yann</t>
+  </si>
+  <si>
+    <t>Herklotz</t>
+  </si>
+  <si>
+    <t>Holland</t>
+  </si>
+  <si>
+    <t>Iorga</t>
+  </si>
+  <si>
+    <t>Abhinav</t>
+  </si>
+  <si>
+    <t>Jangda</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Kaleba</t>
+  </si>
+  <si>
+    <t>Mijung</t>
+  </si>
+  <si>
+    <t>Srđan</t>
+  </si>
+  <si>
+    <t>Krstić</t>
+  </si>
+  <si>
+    <t>Ton Chanh</t>
+  </si>
+  <si>
+    <t>Caroline</t>
+  </si>
+  <si>
+    <t>Lemieux</t>
+  </si>
+  <si>
+    <t>Yun</t>
+  </si>
+  <si>
+    <t>Zhengyang</t>
+  </si>
+  <si>
+    <t>Linghui</t>
+  </si>
+  <si>
+    <t>Umang</t>
+  </si>
+  <si>
+    <t>Mathur</t>
+  </si>
+  <si>
+    <t>Raúl</t>
+  </si>
+  <si>
+    <t>Monti</t>
+  </si>
+  <si>
+    <t>Narasimhan</t>
+  </si>
+  <si>
+    <t>Benjamin Barslev</t>
+  </si>
+  <si>
+    <t>Nielsen</t>
+  </si>
+  <si>
+    <t>Nowack</t>
+  </si>
+  <si>
+    <t>Jihee</t>
+  </si>
+  <si>
+    <t>Hernan</t>
+  </si>
+  <si>
+    <t>Ponce de Leon</t>
+  </si>
+  <si>
+    <t>Rosà</t>
+  </si>
+  <si>
+    <t>Sisco</t>
+  </si>
+  <si>
+    <t>Aishwarya</t>
+  </si>
+  <si>
+    <t>Sivaraman</t>
+  </si>
+  <si>
+    <t>Sunbeom</t>
+  </si>
+  <si>
+    <t>So</t>
+  </si>
+  <si>
+    <t>Ting</t>
+  </si>
+  <si>
+    <t>Alexa</t>
+  </si>
+  <si>
+    <t>VanHattum</t>
+  </si>
+  <si>
+    <t>Oskar Haarklou</t>
+  </si>
+  <si>
+    <t>Veileborg</t>
+  </si>
+  <si>
+    <t>Chengyu</t>
+  </si>
+  <si>
+    <t>OOPSLA 2020</t>
+  </si>
+  <si>
+    <t>Oskar</t>
+  </si>
+  <si>
+    <t>Abrahamsson</t>
+  </si>
+  <si>
+    <t>Azevedo de Amorim</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>Bichhawat</t>
+  </si>
+  <si>
+    <t>Campagna</t>
+  </si>
+  <si>
+    <t>Sunjay</t>
+  </si>
+  <si>
+    <t>Cauligi</t>
+  </si>
+  <si>
+    <t>Tej</t>
+  </si>
+  <si>
+    <t>Chajed</t>
+  </si>
+  <si>
+    <t>Laxman</t>
+  </si>
+  <si>
+    <t>Dhulipala</t>
+  </si>
+  <si>
+    <t>Bui Phi</t>
+  </si>
+  <si>
+    <t>Vimuth</t>
+  </si>
+  <si>
+    <t>Elazar</t>
+  </si>
+  <si>
+    <t>Gershuni</t>
+  </si>
+  <si>
+    <t>Kiran</t>
+  </si>
+  <si>
+    <t>Gopinathan</t>
+  </si>
+  <si>
+    <t>Sankha Narayan</t>
+  </si>
+  <si>
+    <t>Guria</t>
+  </si>
+  <si>
+    <t>Hanru</t>
+  </si>
+  <si>
+    <t>Christian Gram</t>
+  </si>
+  <si>
+    <t>Kalhauge</t>
+  </si>
+  <si>
+    <t>Kellogg</t>
+  </si>
+  <si>
+    <t>Tanvir Ahmed</t>
+  </si>
+  <si>
+    <t>Tristan</t>
+  </si>
+  <si>
+    <t>Knoth</t>
+  </si>
+  <si>
+    <t>Michalis</t>
+  </si>
+  <si>
+    <t>Kokologiannakis</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>Laeufer</t>
+  </si>
+  <si>
+    <t>Lemberger</t>
+  </si>
+  <si>
+    <t>Liao</t>
+  </si>
+  <si>
+    <t>Blake</t>
+  </si>
+  <si>
+    <t>Loring</t>
+  </si>
+  <si>
+    <t>Phúc C.</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>Sampaio</t>
+  </si>
+  <si>
+    <t>Schemmel</t>
+  </si>
+  <si>
+    <t>Subramaniyan</t>
+  </si>
+  <si>
+    <t>Kirshanthan</t>
+  </si>
+  <si>
+    <t>Sundararajah</t>
+  </si>
+  <si>
+    <t>Yong Kiam</t>
+  </si>
+  <si>
+    <t>Titolo</t>
+  </si>
+  <si>
+    <t>Zikang</t>
+  </si>
+  <si>
+    <t>Xiong</t>
+  </si>
+  <si>
+    <t>PLDI 2020</t>
+  </si>
+  <si>
+    <t>Anitha</t>
+  </si>
+  <si>
+    <t>Gollamudi</t>
+  </si>
+  <si>
+    <t>Hirsch</t>
+  </si>
+  <si>
+    <t>Roldán</t>
+  </si>
+  <si>
+    <t>Allais</t>
+  </si>
+  <si>
+    <t>Ismail</t>
+  </si>
+  <si>
+    <t>Kuru</t>
+  </si>
+  <si>
+    <t>Hackett</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Dylus</t>
+  </si>
+  <si>
+    <t>Stefan K.</t>
+  </si>
+  <si>
+    <t>Muller</t>
+  </si>
+  <si>
+    <t>Stefania</t>
+  </si>
+  <si>
+    <t>Dumbrava</t>
+  </si>
+  <si>
+    <t>Dmitriy</t>
+  </si>
+  <si>
+    <t>Traytel</t>
+  </si>
+  <si>
+    <t>Qianchuan</t>
+  </si>
+  <si>
+    <t>Ye</t>
+  </si>
+  <si>
+    <t>Yoonseung</t>
+  </si>
+  <si>
+    <t>Yuepeng</t>
+  </si>
+  <si>
+    <t>Wonyeol</t>
+  </si>
+  <si>
+    <t>Youngju</t>
+  </si>
+  <si>
+    <t>POPL 2020</t>
+  </si>
+  <si>
+    <t>Söderberg</t>
+  </si>
+  <si>
+    <t>SLE 2019</t>
+  </si>
+  <si>
+    <t>Bruneliere</t>
+  </si>
+  <si>
+    <t>Catala</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Church</t>
+  </si>
+  <si>
+    <t>Juri Di</t>
+  </si>
+  <si>
+    <t>Rocco</t>
+  </si>
+  <si>
+    <t>Garcia-Dominguez</t>
+  </si>
+  <si>
+    <t>Daniel-Jesus</t>
+  </si>
+  <si>
+    <t>Munoz</t>
+  </si>
+  <si>
+    <t>Mey</t>
+  </si>
+  <si>
+    <t>SLE 2020</t>
+  </si>
+  <si>
+    <t>Corral-Plaza</t>
+  </si>
+  <si>
+    <t>Fola-Dami</t>
+  </si>
+  <si>
+    <t>Eyitemi</t>
+  </si>
+  <si>
+    <t>Abdulhakeem</t>
+  </si>
+  <si>
+    <t>Ibrahim</t>
+  </si>
+  <si>
+    <t>Marra</t>
+  </si>
+  <si>
+    <t>Niephaus</t>
+  </si>
+  <si>
+    <t>Bello</t>
+  </si>
+  <si>
+    <t>Shehu</t>
+  </si>
+  <si>
+    <t>Kevin Jesús</t>
+  </si>
+  <si>
+    <t>Valle-Gómez</t>
+  </si>
+  <si>
+    <t>Alfa</t>
+  </si>
+  <si>
+    <t>Yohannis</t>
+  </si>
+  <si>
+    <t>Sabet</t>
+  </si>
+  <si>
+    <t>Connor</t>
+  </si>
+  <si>
+    <t>Holmes</t>
+  </si>
+  <si>
+    <t>Bisbas</t>
+  </si>
+  <si>
+    <t>Heehoon</t>
+  </si>
+  <si>
+    <t>Beadle</t>
+  </si>
+  <si>
+    <t>Kaiming</t>
+  </si>
+  <si>
+    <t>Ouyang</t>
+  </si>
+  <si>
+    <t>Karthik</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>Singer</t>
+  </si>
+  <si>
+    <t>Lev</t>
+  </si>
+  <si>
+    <t>Mukhanov</t>
+  </si>
+  <si>
+    <t>Loc</t>
+  </si>
+  <si>
+    <t>Hoang</t>
+  </si>
+  <si>
+    <t>Monil</t>
+  </si>
+  <si>
+    <t>Esfahani</t>
+  </si>
+  <si>
+    <t>Sasongko</t>
+  </si>
+  <si>
+    <t>Shigeyuki</t>
+  </si>
+  <si>
+    <t>Shu-Mei</t>
+  </si>
+  <si>
+    <t>Tseng</t>
+  </si>
+  <si>
+    <t>Tong</t>
+  </si>
+  <si>
+    <t>Geng</t>
+  </si>
+  <si>
+    <t>Vishwesh</t>
+  </si>
+  <si>
+    <t>Jatala</t>
+  </si>
+  <si>
+    <t>Wentao</t>
+  </si>
+  <si>
+    <t>Yiyuan</t>
+  </si>
+  <si>
+    <t>Yuyang</t>
+  </si>
+  <si>
+    <t>Zhengyi</t>
+  </si>
+  <si>
+    <t>Herbert Alan</t>
+  </si>
+  <si>
+    <t>Mohsen Koohi</t>
+  </si>
+  <si>
+    <t>Muhammad Aditya</t>
+  </si>
+  <si>
+    <t>Amir Hossein Nodehi</t>
+  </si>
+  <si>
+    <t>PPoPP 2020</t>
+  </si>
+  <si>
+    <t>Demsky</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8573,6 +9629,24 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -8601,9 +9675,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8922,10 +9998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFDABF5-3A43-4948-9005-B2E9BEF3871E}">
-  <dimension ref="A1:F1658"/>
+  <dimension ref="A1:F2050"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A2012" workbookViewId="0">
+      <selection activeCell="E2030" sqref="E2030"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -42100,8 +43176,7065 @@
         <v>2831</v>
       </c>
     </row>
+    <row r="1659" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1659" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1659" t="s">
+        <v>574</v>
+      </c>
+      <c r="C1659" t="str">
+        <f>_xlfn.CONCAT(A1659," ",B1659)</f>
+        <v>Bastian Hagedorn</v>
+      </c>
+      <c r="D1659" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E1659" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1660" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1660" t="s">
+        <v>533</v>
+      </c>
+      <c r="C1660" t="str">
+        <f t="shared" ref="C1660:C1723" si="0">_xlfn.CONCAT(A1660," ",B1660)</f>
+        <v>Michel Steuwer</v>
+      </c>
+      <c r="D1660" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E1660" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1661" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1661" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1661" t="str">
+        <f t="shared" si="0"/>
+        <v>Michael Laurenzano</v>
+      </c>
+      <c r="D1661" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E1661" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1662" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1662" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1662" t="str">
+        <f t="shared" si="0"/>
+        <v>Andrew Lee</v>
+      </c>
+      <c r="D1662" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E1662" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1663" t="s">
+        <v>573</v>
+      </c>
+      <c r="B1663" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C1663" t="str">
+        <f t="shared" si="0"/>
+        <v>Bastian Köpcke</v>
+      </c>
+      <c r="D1663" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E1663" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1664" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B1664" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C1664" t="str">
+        <f t="shared" si="0"/>
+        <v>Charith Mendis</v>
+      </c>
+      <c r="D1664" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E1664" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1665" t="s">
+        <v>2394</v>
+      </c>
+      <c r="B1665" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C1665" t="str">
+        <f t="shared" si="0"/>
+        <v>Christopher Clarke</v>
+      </c>
+      <c r="D1665" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E1665" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1666" t="s">
+        <v>621</v>
+      </c>
+      <c r="B1666" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1666" t="str">
+        <f t="shared" si="0"/>
+        <v>Fangzhou Liu</v>
+      </c>
+      <c r="D1666" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E1666" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1667" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B1667" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C1667" t="str">
+        <f t="shared" si="0"/>
+        <v>Hariharan Sandanagobalane</v>
+      </c>
+      <c r="D1667" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E1667" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1668" t="s">
+        <v>603</v>
+      </c>
+      <c r="B1668" t="s">
+        <v>2511</v>
+      </c>
+      <c r="C1668" t="str">
+        <f t="shared" si="0"/>
+        <v>Jie Zhou</v>
+      </c>
+      <c r="D1668" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E1668" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1669" t="s">
+        <v>652</v>
+      </c>
+      <c r="B1669" t="s">
+        <v>2747</v>
+      </c>
+      <c r="C1669" t="str">
+        <f t="shared" si="0"/>
+        <v>Joe Isaacs</v>
+      </c>
+      <c r="D1669" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E1669" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1670" t="s">
+        <v>2839</v>
+      </c>
+      <c r="B1670" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C1670" t="str">
+        <f t="shared" si="0"/>
+        <v>Nirmal Prajapati</v>
+      </c>
+      <c r="D1670" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E1670" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1671" t="s">
+        <v>594</v>
+      </c>
+      <c r="B1671" t="s">
+        <v>595</v>
+      </c>
+      <c r="C1671" t="str">
+        <f t="shared" si="0"/>
+        <v>Pengfei Su</v>
+      </c>
+      <c r="D1671" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E1671" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1672" t="s">
+        <v>2841</v>
+      </c>
+      <c r="B1672" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C1672" t="str">
+        <f t="shared" si="0"/>
+        <v>Roland Daynauth</v>
+      </c>
+      <c r="D1672" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E1672" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1673" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B1673" t="s">
+        <v>2843</v>
+      </c>
+      <c r="C1673" t="str">
+        <f t="shared" si="0"/>
+        <v>Stephen Chou</v>
+      </c>
+      <c r="D1673" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E1673" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1674" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1674" t="s">
+        <v>2844</v>
+      </c>
+      <c r="C1674" t="str">
+        <f t="shared" si="0"/>
+        <v>Thomas Koehler</v>
+      </c>
+      <c r="D1674" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E1674" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1675" t="s">
+        <v>2481</v>
+      </c>
+      <c r="B1675" t="s">
+        <v>2845</v>
+      </c>
+      <c r="C1675" t="str">
+        <f t="shared" si="0"/>
+        <v>Tobias Kohn</v>
+      </c>
+      <c r="D1675" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E1675" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1676" t="s">
+        <v>2846</v>
+      </c>
+      <c r="B1676" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C1676" t="str">
+        <f t="shared" si="0"/>
+        <v>Yiping Kang</v>
+      </c>
+      <c r="D1676" t="s">
+        <v>2832</v>
+      </c>
+      <c r="E1676" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1677" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="B1677" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="C1677" t="str">
+        <f t="shared" si="0"/>
+        <v>Georgios Gousios</v>
+      </c>
+      <c r="D1677" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1677" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1678" s="2" t="s">
+        <v>2847</v>
+      </c>
+      <c r="B1678" s="2" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C1678" t="str">
+        <f t="shared" si="0"/>
+        <v>Kathryn Stolee</v>
+      </c>
+      <c r="D1678" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1678" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1679" s="2" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B1679" s="2" t="s">
+        <v>2850</v>
+      </c>
+      <c r="C1679" t="str">
+        <f t="shared" si="0"/>
+        <v>Subarno Banerjee</v>
+      </c>
+      <c r="D1679" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1679" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1680" s="2" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B1680" s="2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1680" t="str">
+        <f t="shared" si="0"/>
+        <v>Titus Barik</v>
+      </c>
+      <c r="D1680" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1680" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1681" s="2" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B1681" s="2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C1681" t="str">
+        <f t="shared" si="0"/>
+        <v>Casey Casalnuovo</v>
+      </c>
+      <c r="D1681" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1681" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1682" s="2" t="s">
+        <v>2851</v>
+      </c>
+      <c r="B1682" s="2" t="s">
+        <v>2852</v>
+      </c>
+      <c r="C1682" t="str">
+        <f t="shared" si="0"/>
+        <v>Gemma Catolino</v>
+      </c>
+      <c r="D1682" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1682" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1683" s="2" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B1683" s="2" t="s">
+        <v>1595</v>
+      </c>
+      <c r="C1683" t="str">
+        <f t="shared" si="0"/>
+        <v>Jürgen Cito</v>
+      </c>
+      <c r="D1683" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1683" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1684" s="2" t="s">
+        <v>2853</v>
+      </c>
+      <c r="B1684" s="2" t="s">
+        <v>2854</v>
+      </c>
+      <c r="C1684" t="str">
+        <f t="shared" si="0"/>
+        <v>Eleni Constantinou</v>
+      </c>
+      <c r="D1684" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1684" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1685" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B1685" s="2" t="s">
+        <v>2855</v>
+      </c>
+      <c r="C1685" t="str">
+        <f t="shared" si="0"/>
+        <v>Luis Cruz</v>
+      </c>
+      <c r="D1685" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1685" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1686" s="2" t="s">
+        <v>2856</v>
+      </c>
+      <c r="B1686" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="C1686" t="str">
+        <f t="shared" si="0"/>
+        <v>James C. Davis</v>
+      </c>
+      <c r="D1686" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1686" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1687" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B1687" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C1687" t="str">
+        <f t="shared" si="0"/>
+        <v>Xavier Devroey</v>
+      </c>
+      <c r="D1687" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1687" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1688" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B1688" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C1688" t="str">
+        <f t="shared" si="0"/>
+        <v>Vincent Hellendoorn</v>
+      </c>
+      <c r="D1688" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1688" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1689" s="2" t="s">
+        <v>2857</v>
+      </c>
+      <c r="B1689" s="2" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C1689" t="str">
+        <f t="shared" si="0"/>
+        <v>Ayaan M. Kazerouni</v>
+      </c>
+      <c r="D1689" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1689" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1690" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1690" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C1690" t="str">
+        <f t="shared" si="0"/>
+        <v>Maria Kechagia</v>
+      </c>
+      <c r="D1690" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1690" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1691" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1691" s="2" t="s">
+        <v>2859</v>
+      </c>
+      <c r="C1691" t="str">
+        <f t="shared" si="0"/>
+        <v>George Mathew</v>
+      </c>
+      <c r="D1691" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1691" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1692" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B1692" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C1692" t="str">
+        <f t="shared" si="0"/>
+        <v>Collin McMillan</v>
+      </c>
+      <c r="D1692" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1692" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1693" s="2" t="s">
+        <v>2860</v>
+      </c>
+      <c r="B1693" s="2" t="s">
+        <v>2861</v>
+      </c>
+      <c r="C1693" t="str">
+        <f t="shared" si="0"/>
+        <v>Samim Mirhosseini</v>
+      </c>
+      <c r="D1693" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1693" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1694" s="2" t="s">
+        <v>2577</v>
+      </c>
+      <c r="B1694" s="2" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C1694" t="str">
+        <f t="shared" si="0"/>
+        <v>Dimitris Mitropoulos</v>
+      </c>
+      <c r="D1694" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1694" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1695" s="2" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B1695" s="2" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C1695" t="str">
+        <f t="shared" si="0"/>
+        <v>Lloyd Montgomery</v>
+      </c>
+      <c r="D1695" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1695" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1696" s="2" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B1696" s="2" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C1696" t="str">
+        <f t="shared" si="0"/>
+        <v>Moritz Beller</v>
+      </c>
+      <c r="D1696" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1696" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1697" s="2" t="s">
+        <v>2865</v>
+      </c>
+      <c r="B1697" s="2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="C1697" t="str">
+        <f t="shared" si="0"/>
+        <v>Vivek Nair</v>
+      </c>
+      <c r="D1697" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1697" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1698" s="2" t="s">
+        <v>2867</v>
+      </c>
+      <c r="B1698" s="2" t="s">
+        <v>2868</v>
+      </c>
+      <c r="C1698" t="str">
+        <f t="shared" si="0"/>
+        <v>John-Paul Ore</v>
+      </c>
+      <c r="D1698" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1698" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1699" s="2" t="s">
+        <v>2869</v>
+      </c>
+      <c r="B1699" s="2" t="s">
+        <v>2870</v>
+      </c>
+      <c r="C1699" t="str">
+        <f t="shared" si="0"/>
+        <v>Anand Ashok Sawant</v>
+      </c>
+      <c r="D1699" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1699" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1700" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B1700" s="2" t="s">
+        <v>2871</v>
+      </c>
+      <c r="C1700" t="str">
+        <f t="shared" si="0"/>
+        <v>Michele Tufano</v>
+      </c>
+      <c r="D1700" t="s">
+        <v>2872</v>
+      </c>
+      <c r="E1700" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1701" s="3" t="s">
+        <v>2873</v>
+      </c>
+      <c r="B1701" s="3" t="s">
+        <v>2874</v>
+      </c>
+      <c r="C1701" t="str">
+        <f t="shared" si="0"/>
+        <v>Brent Yorgey</v>
+      </c>
+      <c r="D1701" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1701" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1702" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B1702" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C1702" t="str">
+        <f t="shared" si="0"/>
+        <v>Ben Lippmeier</v>
+      </c>
+      <c r="D1702" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1702" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1703" s="3" t="s">
+        <v>2875</v>
+      </c>
+      <c r="B1703" s="3" t="s">
+        <v>2876</v>
+      </c>
+      <c r="C1703" t="str">
+        <f t="shared" si="0"/>
+        <v>Justus Adam</v>
+      </c>
+      <c r="D1703" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1703" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1704" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B1704" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C1704" t="str">
+        <f t="shared" si="0"/>
+        <v>Alejandro Aguirre</v>
+      </c>
+      <c r="D1704" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1704" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1705" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1705" s="3" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C1705" t="str">
+        <f t="shared" si="0"/>
+        <v>Michael Buch</v>
+      </c>
+      <c r="D1705" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1705" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1706" s="3" t="s">
+        <v>2878</v>
+      </c>
+      <c r="B1706" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1706" t="str">
+        <f t="shared" si="0"/>
+        <v>Zilin Chen</v>
+      </c>
+      <c r="D1706" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1706" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1707" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B1707" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C1707" t="str">
+        <f t="shared" si="0"/>
+        <v>Mistral Contrastin</v>
+      </c>
+      <c r="D1707" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1707" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1708" s="3" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B1708" s="3" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C1708" t="str">
+        <f t="shared" si="0"/>
+        <v>Aymeric Fromherz</v>
+      </c>
+      <c r="D1708" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1708" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1709" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B1709" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C1709" t="str">
+        <f t="shared" si="0"/>
+        <v>April Gonçalves</v>
+      </c>
+      <c r="D1709" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1709" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1710" s="3" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B1710" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="C1710" t="str">
+        <f t="shared" si="0"/>
+        <v>Zheng Guo</v>
+      </c>
+      <c r="D1710" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1710" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1711" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1711" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C1711" t="str">
+        <f t="shared" si="0"/>
+        <v>Matthias Güdemann</v>
+      </c>
+      <c r="D1711" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1711" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1712" s="3" t="s">
+        <v>2881</v>
+      </c>
+      <c r="B1712" s="3" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C1712" t="str">
+        <f t="shared" si="0"/>
+        <v>Jason Z.S. Hu</v>
+      </c>
+      <c r="D1712" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1712" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1713" s="3" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B1713" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1713" t="str">
+        <f t="shared" si="0"/>
+        <v>Michael B. James</v>
+      </c>
+      <c r="D1713" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1713" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1714" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="B1714" s="3" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C1714" t="str">
+        <f t="shared" si="0"/>
+        <v>Jonas Kastberg Hinrichsen</v>
+      </c>
+      <c r="D1714" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1714" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1715" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1715" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C1715" t="str">
+        <f t="shared" si="0"/>
+        <v>Wen Kokke</v>
+      </c>
+      <c r="D1715" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1715" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1716" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B1716" s="3" t="s">
+        <v>2884</v>
+      </c>
+      <c r="C1716" t="str">
+        <f t="shared" si="0"/>
+        <v>Lukas Lazarek</v>
+      </c>
+      <c r="D1716" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1716" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1717" s="3" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B1717" s="3" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C1717" t="str">
+        <f t="shared" si="0"/>
+        <v>Georgy Lukyanov</v>
+      </c>
+      <c r="D1717" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1717" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1718" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="B1718" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1718" t="str">
+        <f t="shared" si="0"/>
+        <v>Tran Ma</v>
+      </c>
+      <c r="D1718" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1718" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1719" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B1719" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C1719" t="str">
+        <f t="shared" si="0"/>
+        <v>Guido Martínez</v>
+      </c>
+      <c r="D1719" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1719" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1720" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B1720" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C1720" t="str">
+        <f t="shared" si="0"/>
+        <v>Darius Mercadier</v>
+      </c>
+      <c r="D1720" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1720" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1721" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B1721" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C1721" t="str">
+        <f t="shared" si="0"/>
+        <v>Denis Merigoux</v>
+      </c>
+      <c r="D1721" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1721" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1722" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B1722" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C1722" t="str">
+        <f t="shared" si="0"/>
+        <v>Agustín Mista</v>
+      </c>
+      <c r="D1722" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1722" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1723" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="B1723" s="3" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C1723" t="str">
+        <f t="shared" si="0"/>
+        <v>Philip Munksgaard</v>
+      </c>
+      <c r="D1723" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1723" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1724" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1724" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C1724" t="str">
+        <f t="shared" ref="C1724:C1787" si="1">_xlfn.CONCAT(A1724," ",B1724)</f>
+        <v>Yuki Nishida</v>
+      </c>
+      <c r="D1724" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1724" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1725" s="3" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B1725" s="3" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C1725" t="str">
+        <f t="shared" si="1"/>
+        <v>Arjen Rouvoet</v>
+      </c>
+      <c r="D1725" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1725" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1726" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B1726" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C1726" t="str">
+        <f t="shared" si="1"/>
+        <v>Alex Sanchez-Stern</v>
+      </c>
+      <c r="D1726" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1726" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1727" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1727" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1727" t="str">
+        <f t="shared" si="1"/>
+        <v>John Sarracino</v>
+      </c>
+      <c r="D1727" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1727" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1728" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B1728" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C1728" t="str">
+        <f t="shared" si="1"/>
+        <v>Taro Sekiyama</v>
+      </c>
+      <c r="D1728" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1728" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1729" s="3" t="s">
+        <v>2890</v>
+      </c>
+      <c r="B1729" s="3" t="s">
+        <v>2891</v>
+      </c>
+      <c r="C1729" t="str">
+        <f t="shared" si="1"/>
+        <v>Mallku Ernesto Soldevila Raffa</v>
+      </c>
+      <c r="D1729" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1729" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1730" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1730" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C1730" t="str">
+        <f t="shared" si="1"/>
+        <v>Leo Stefanesco</v>
+      </c>
+      <c r="D1730" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1730" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1731" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1731" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C1731" t="str">
+        <f t="shared" si="1"/>
+        <v>Quentin Stiévenart</v>
+      </c>
+      <c r="D1731" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1731" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1732" s="3" t="s">
+        <v>2892</v>
+      </c>
+      <c r="B1732" s="3" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C1732" t="str">
+        <f t="shared" si="1"/>
+        <v>Nachiappan Valliappan</v>
+      </c>
+      <c r="D1732" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1732" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1733" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1733" s="3" t="s">
+        <v>2894</v>
+      </c>
+      <c r="C1733" t="str">
+        <f t="shared" si="1"/>
+        <v>Thomas Van Strydonck</v>
+      </c>
+      <c r="D1733" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1733" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1734" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B1734" s="3" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C1734" t="str">
+        <f t="shared" si="1"/>
+        <v>Alexander Vandenbroucke</v>
+      </c>
+      <c r="D1734" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1734" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1735" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B1735" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C1735" t="str">
+        <f t="shared" si="1"/>
+        <v>Niccolò Veltri</v>
+      </c>
+      <c r="D1735" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1735" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1736" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B1736" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1736" t="str">
+        <f t="shared" si="1"/>
+        <v>Yuting Wang</v>
+      </c>
+      <c r="D1736" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1736" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1737" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B1737" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1737" t="str">
+        <f t="shared" si="1"/>
+        <v>Guannan Wei</v>
+      </c>
+      <c r="D1737" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1737" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1738" s="3" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B1738" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C1738" t="str">
+        <f t="shared" si="1"/>
+        <v>Andy Wingo</v>
+      </c>
+      <c r="D1738" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1738" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1739" s="3" t="s">
+        <v>2896</v>
+      </c>
+      <c r="B1739" s="3" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C1739" t="str">
+        <f t="shared" si="1"/>
+        <v>Shu-Hung You</v>
+      </c>
+      <c r="D1739" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1739" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1740" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B1740" s="3" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C1740" t="str">
+        <f t="shared" si="1"/>
+        <v>Erik de Castro Lopo</v>
+      </c>
+      <c r="D1740" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1740" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1741" s="3" t="s">
+        <v>2899</v>
+      </c>
+      <c r="B1741" s="3" t="s">
+        <v>2900</v>
+      </c>
+      <c r="C1741" t="str">
+        <f t="shared" si="1"/>
+        <v>Birthe van den Berg</v>
+      </c>
+      <c r="D1741" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E1741" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1742" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B1742" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C1742" t="str">
+        <f t="shared" si="1"/>
+        <v>Tim Menzies</v>
+      </c>
+      <c r="D1742" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1742" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1743" s="3" t="s">
+        <v>2902</v>
+      </c>
+      <c r="B1743" s="3" t="s">
+        <v>2903</v>
+      </c>
+      <c r="C1743" t="str">
+        <f t="shared" si="1"/>
+        <v>Leandro Minku</v>
+      </c>
+      <c r="D1743" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1743" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1744" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B1744" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C1744" t="str">
+        <f t="shared" si="1"/>
+        <v>Silvia Abrahão</v>
+      </c>
+      <c r="D1744" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1744" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1745" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B1745" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C1745" t="str">
+        <f t="shared" si="1"/>
+        <v>Hamid Bagheri</v>
+      </c>
+      <c r="D1745" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1745" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1746" s="3" t="s">
+        <v>2904</v>
+      </c>
+      <c r="B1746" s="3" t="s">
+        <v>2905</v>
+      </c>
+      <c r="C1746" t="str">
+        <f t="shared" si="1"/>
+        <v>Marcio Barros</v>
+      </c>
+      <c r="D1746" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1746" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1747" s="3" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B1747" s="3" t="s">
+        <v>2907</v>
+      </c>
+      <c r="C1747" t="str">
+        <f t="shared" si="1"/>
+        <v>Tanmay Bhowmik</v>
+      </c>
+      <c r="D1747" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1747" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1748" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B1748" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C1748" t="str">
+        <f t="shared" si="1"/>
+        <v>Kelly Blincoe</v>
+      </c>
+      <c r="D1748" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1748" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1749" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="B1749" s="3" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C1749" t="str">
+        <f t="shared" si="1"/>
+        <v>George Cabral</v>
+      </c>
+      <c r="D1749" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1749" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1750" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B1750" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1750" t="str">
+        <f t="shared" si="1"/>
+        <v>Tao Chen</v>
+      </c>
+      <c r="D1750" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1750" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1751" s="3" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B1751" s="3" t="s">
+        <v>2910</v>
+      </c>
+      <c r="C1751" t="str">
+        <f t="shared" si="1"/>
+        <v>Xuan Bach D. Le</v>
+      </c>
+      <c r="D1751" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1751" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1752" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="B1752" s="3" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C1752" t="str">
+        <f t="shared" si="1"/>
+        <v>Daniel Alencar Da Costa</v>
+      </c>
+      <c r="D1752" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1752" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1753" s="3" t="s">
+        <v>2911</v>
+      </c>
+      <c r="B1753" s="3" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C1753" t="str">
+        <f t="shared" si="1"/>
+        <v>Giuseppe Destefanis</v>
+      </c>
+      <c r="D1753" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1753" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1754" s="3" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1754" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C1754" t="str">
+        <f t="shared" si="1"/>
+        <v>Neil Ernst</v>
+      </c>
+      <c r="D1754" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1754" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1755" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1755" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1755" t="str">
+        <f t="shared" si="1"/>
+        <v>Antonio Filieri</v>
+      </c>
+      <c r="D1755" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1755" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1756" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B1756" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C1756" t="str">
+        <f t="shared" si="1"/>
+        <v>Regina Hebig</v>
+      </c>
+      <c r="D1756" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1756" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1757" s="3" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B1757" s="3" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C1757" t="str">
+        <f t="shared" si="1"/>
+        <v>Jennifer Horkoff</v>
+      </c>
+      <c r="D1757" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1757" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1758" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B1758" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C1758" t="str">
+        <f t="shared" si="1"/>
+        <v>Yasutaka Kamei</v>
+      </c>
+      <c r="D1758" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1758" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1759" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B1759" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C1759" t="str">
+        <f t="shared" si="1"/>
+        <v>Eric Knauss</v>
+      </c>
+      <c r="D1759" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1759" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1760" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B1760" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C1760" t="str">
+        <f t="shared" si="1"/>
+        <v>Anne Koziolek</v>
+      </c>
+      <c r="D1760" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1760" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1761" s="3" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B1761" s="3" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C1761" t="str">
+        <f t="shared" si="1"/>
+        <v>Rahul Krishna</v>
+      </c>
+      <c r="D1761" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1761" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1762" s="3" t="s">
+        <v>2916</v>
+      </c>
+      <c r="B1762" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1762" t="str">
+        <f t="shared" si="1"/>
+        <v>Yepang Liu</v>
+      </c>
+      <c r="D1762" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1762" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1763" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="B1763" s="3" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C1763" t="str">
+        <f t="shared" si="1"/>
+        <v>Daniel Mendez</v>
+      </c>
+      <c r="D1763" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1763" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1764" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1764" s="3" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C1764" t="str">
+        <f t="shared" si="1"/>
+        <v>Martin Monperrus</v>
+      </c>
+      <c r="D1764" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1764" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1765" s="3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B1765" s="3" t="s">
+        <v>2864</v>
+      </c>
+      <c r="C1765" t="str">
+        <f t="shared" si="1"/>
+        <v>Lloyd Montgomery</v>
+      </c>
+      <c r="D1765" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1765" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1766" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1766" s="3" t="s">
+        <v>2919</v>
+      </c>
+      <c r="C1766" t="str">
+        <f t="shared" si="1"/>
+        <v>Maria Teresa Baldassarre</v>
+      </c>
+      <c r="D1766" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1766" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1767" s="3" t="s">
+        <v>2920</v>
+      </c>
+      <c r="B1767" s="3" t="s">
+        <v>2921</v>
+      </c>
+      <c r="C1767" t="str">
+        <f t="shared" si="1"/>
+        <v>Sira Vegas</v>
+      </c>
+      <c r="D1767" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1767" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1768" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1768" s="3" t="s">
+        <v>2922</v>
+      </c>
+      <c r="C1768" t="str">
+        <f t="shared" si="1"/>
+        <v>Andreas Vogelsang</v>
+      </c>
+      <c r="D1768" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1768" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1769" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1769" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1769" t="str">
+        <f t="shared" si="1"/>
+        <v>Shuai Wang</v>
+      </c>
+      <c r="D1769" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1769" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1770" s="3" t="s">
+        <v>2923</v>
+      </c>
+      <c r="B1770" s="3" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C1770" t="str">
+        <f t="shared" si="1"/>
+        <v>Hironori Washizaki</v>
+      </c>
+      <c r="D1770" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1770" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1771" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B1771" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1771" t="str">
+        <f t="shared" si="1"/>
+        <v>Hongyu Zhang</v>
+      </c>
+      <c r="D1771" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1771" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1772" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B1772" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1772" t="str">
+        <f t="shared" si="1"/>
+        <v>Tianyi Zhang</v>
+      </c>
+      <c r="D1772" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E1772" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1773" s="3" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B1773" s="3" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C1773" t="str">
+        <f t="shared" si="1"/>
+        <v>Rody Kersten</v>
+      </c>
+      <c r="D1773" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1773" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1774" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1774" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1774" t="str">
+        <f t="shared" si="1"/>
+        <v>Kasper Luckow</v>
+      </c>
+      <c r="D1774" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1774" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1775" s="3" t="s">
+        <v>2929</v>
+      </c>
+      <c r="B1775" s="3" t="s">
+        <v>2930</v>
+      </c>
+      <c r="C1775" t="str">
+        <f t="shared" si="1"/>
+        <v>Ellen Arteca</v>
+      </c>
+      <c r="D1775" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1775" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1776" s="3" t="s">
+        <v>2931</v>
+      </c>
+      <c r="B1776" s="3" t="s">
+        <v>2932</v>
+      </c>
+      <c r="C1776" t="str">
+        <f t="shared" si="1"/>
+        <v>Cyrille Artho</v>
+      </c>
+      <c r="D1776" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1776" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1777" s="3" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B1777" s="3" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C1777" t="str">
+        <f t="shared" si="1"/>
+        <v>Tegan Brennan</v>
+      </c>
+      <c r="D1777" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1777" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1778" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1778" s="3" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C1778" t="str">
+        <f t="shared" si="1"/>
+        <v>Thomas Bøgholm</v>
+      </c>
+      <c r="D1778" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1778" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1779" s="3" t="s">
+        <v>2547</v>
+      </c>
+      <c r="B1779" s="3" t="s">
+        <v>2936</v>
+      </c>
+      <c r="C1779" t="str">
+        <f t="shared" si="1"/>
+        <v>Maxime Cordy</v>
+      </c>
+      <c r="D1779" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1779" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1780" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B1780" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C1780" t="str">
+        <f t="shared" si="1"/>
+        <v>Renzo Degiovanni</v>
+      </c>
+      <c r="D1780" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1780" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1781" s="3" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B1781" s="3" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C1781" t="str">
+        <f t="shared" si="1"/>
+        <v>Aymeric Fromherz</v>
+      </c>
+      <c r="D1781" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1781" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1782" s="3" t="s">
+        <v>2937</v>
+      </c>
+      <c r="B1782" s="3" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C1782" t="str">
+        <f t="shared" si="1"/>
+        <v>Bernard van Gastel</v>
+      </c>
+      <c r="D1782" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1782" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1783" s="3" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B1783" s="3" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C1783" t="str">
+        <f t="shared" si="1"/>
+        <v>Jiaping Gui</v>
+      </c>
+      <c r="D1783" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1783" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1784" s="3" t="s">
+        <v>2941</v>
+      </c>
+      <c r="B1784" s="3" t="s">
+        <v>2942</v>
+      </c>
+      <c r="C1784" t="str">
+        <f t="shared" si="1"/>
+        <v>Liana Hadarean</v>
+      </c>
+      <c r="D1784" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1784" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1785" s="3" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1785" s="3" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C1785" t="str">
+        <f t="shared" si="1"/>
+        <v>Malte Isberner</v>
+      </c>
+      <c r="D1785" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1785" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1786" s="3" t="s">
+        <v>2914</v>
+      </c>
+      <c r="B1786" s="3" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C1786" t="str">
+        <f t="shared" si="1"/>
+        <v>Rahul Krishna</v>
+      </c>
+      <c r="D1786" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1786" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1787" s="3" t="s">
+        <v>2944</v>
+      </c>
+      <c r="B1787" s="3" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C1787" t="str">
+        <f t="shared" si="1"/>
+        <v>Rami Gökhan Kıcı</v>
+      </c>
+      <c r="D1787" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1787" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1788" s="3" t="s">
+        <v>2946</v>
+      </c>
+      <c r="B1788" s="3" t="s">
+        <v>2947</v>
+      </c>
+      <c r="C1788" t="str">
+        <f t="shared" ref="C1788:C1851" si="2">_xlfn.CONCAT(A1788," ",B1788)</f>
+        <v>Breno Miranda</v>
+      </c>
+      <c r="D1788" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1788" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1789" s="3" t="s">
+        <v>1864</v>
+      </c>
+      <c r="B1789" s="3" t="s">
+        <v>2674</v>
+      </c>
+      <c r="C1789" t="str">
+        <f t="shared" si="2"/>
+        <v>Malte Mues</v>
+      </c>
+      <c r="D1789" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1789" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1790" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B1790" s="3" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C1790" t="str">
+        <f t="shared" si="2"/>
+        <v>Yannic Noller</v>
+      </c>
+      <c r="D1790" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1790" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1791" s="3" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B1791" s="3" t="s">
+        <v>2334</v>
+      </c>
+      <c r="C1791" t="str">
+        <f t="shared" si="2"/>
+        <v>Chao Peng</v>
+      </c>
+      <c r="D1791" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1791" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1792" s="3" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B1792" s="3" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C1792" t="str">
+        <f t="shared" si="2"/>
+        <v>Van-Thuan Pham</v>
+      </c>
+      <c r="D1792" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1792" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1793" s="3" t="s">
+        <v>2953</v>
+      </c>
+      <c r="B1793" s="3" t="s">
+        <v>2954</v>
+      </c>
+      <c r="C1793" t="str">
+        <f t="shared" si="2"/>
+        <v>Pablo Ponzio</v>
+      </c>
+      <c r="D1793" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1793" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1794" s="3" t="s">
+        <v>2955</v>
+      </c>
+      <c r="B1794" s="3" t="s">
+        <v>2956</v>
+      </c>
+      <c r="C1794" t="str">
+        <f t="shared" si="2"/>
+        <v>Huascar Sanchez</v>
+      </c>
+      <c r="D1794" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1794" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1795" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1795" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1795" t="str">
+        <f t="shared" si="2"/>
+        <v>Tushar Sharma</v>
+      </c>
+      <c r="D1795" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1795" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1796" s="3" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B1796" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1796" t="str">
+        <f t="shared" si="2"/>
+        <v>Vaibhav Sharma</v>
+      </c>
+      <c r="D1796" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1796" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1797" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1797" s="3" t="s">
+        <v>2958</v>
+      </c>
+      <c r="C1797" t="str">
+        <f t="shared" si="2"/>
+        <v>Andreas Stahlbauer</v>
+      </c>
+      <c r="D1797" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1797" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1798" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1798" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1798" t="str">
+        <f t="shared" si="2"/>
+        <v>Michael Tautschnig</v>
+      </c>
+      <c r="D1798" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1798" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1799" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B1799" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C1799" t="str">
+        <f t="shared" si="2"/>
+        <v>Leopoldo Teixeira</v>
+      </c>
+      <c r="D1799" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1799" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1800" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="B1800" s="3" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C1800" t="str">
+        <f t="shared" si="2"/>
+        <v>Alexi Turcotte</v>
+      </c>
+      <c r="D1800" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1800" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1801" s="3" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B1801" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1801" t="str">
+        <f t="shared" si="2"/>
+        <v>Qi Xin</v>
+      </c>
+      <c r="D1801" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1801" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1802" s="3" t="s">
+        <v>1997</v>
+      </c>
+      <c r="B1802" s="3" t="s">
+        <v>2962</v>
+      </c>
+      <c r="C1802" t="str">
+        <f t="shared" si="2"/>
+        <v>Zhiqiang Zang</v>
+      </c>
+      <c r="D1802" s="2" t="s">
+        <v>2963</v>
+      </c>
+      <c r="E1802" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1803" s="3" t="s">
+        <v>2964</v>
+      </c>
+      <c r="B1803" s="3" t="s">
+        <v>2965</v>
+      </c>
+      <c r="C1803" t="str">
+        <f t="shared" si="2"/>
+        <v>Huseyin Ergin</v>
+      </c>
+      <c r="D1803" s="2" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E1803" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1804" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1804" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="C1804" t="str">
+        <f t="shared" si="2"/>
+        <v>Matthew Stephan</v>
+      </c>
+      <c r="D1804" s="2" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E1804" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1805" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1805" s="3" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C1805" t="str">
+        <f t="shared" si="2"/>
+        <v>Juliana Alves Pereira</v>
+      </c>
+      <c r="D1805" s="2" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E1805" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1806" s="3" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B1806" s="3" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C1806" t="str">
+        <f t="shared" si="2"/>
+        <v>Lorena Arcega</v>
+      </c>
+      <c r="D1806" s="2" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E1806" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1807" s="3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B1807" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C1807" t="str">
+        <f t="shared" si="2"/>
+        <v>Mojtaba Bagherzadeh</v>
+      </c>
+      <c r="D1807" s="2" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E1807" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1808" s="3" t="s">
+        <v>2970</v>
+      </c>
+      <c r="B1808" s="3" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C1808" t="str">
+        <f t="shared" si="2"/>
+        <v>Jaime Font</v>
+      </c>
+      <c r="D1808" s="2" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E1808" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1809" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1809" s="3" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C1809" t="str">
+        <f t="shared" si="2"/>
+        <v>Michael Herzberg</v>
+      </c>
+      <c r="D1809" s="2" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E1809" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1810" s="3" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B1810" s="3" t="s">
+        <v>2972</v>
+      </c>
+      <c r="C1810" t="str">
+        <f t="shared" si="2"/>
+        <v>Théo Le Calvar</v>
+      </c>
+      <c r="D1810" s="2" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E1810" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1811" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B1811" s="3" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C1811" t="str">
+        <f t="shared" si="2"/>
+        <v>Eric Rapos</v>
+      </c>
+      <c r="D1811" s="2" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E1811" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1812" s="3" t="s">
+        <v>2974</v>
+      </c>
+      <c r="B1812" s="3" t="s">
+        <v>2975</v>
+      </c>
+      <c r="C1812" t="str">
+        <f t="shared" si="2"/>
+        <v>June Sallou</v>
+      </c>
+      <c r="D1812" s="2" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E1812" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1813" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B1813" s="3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C1813" t="str">
+        <f t="shared" si="2"/>
+        <v>Stefan Sauer</v>
+      </c>
+      <c r="D1813" s="2" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E1813" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1814" s="3" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B1814" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C1814" t="str">
+        <f t="shared" si="2"/>
+        <v>Vadim Zaytsev</v>
+      </c>
+      <c r="D1814" s="2" t="s">
+        <v>2966</v>
+      </c>
+      <c r="E1814" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1815" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B1815" s="3" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C1815" t="str">
+        <f t="shared" si="2"/>
+        <v>Colin Gordon</v>
+      </c>
+      <c r="D1815" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1815" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1816" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1816" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="C1816" t="str">
+        <f t="shared" si="2"/>
+        <v>Jan Vitek</v>
+      </c>
+      <c r="D1816" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1816" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1817" s="3" t="s">
+        <v>2977</v>
+      </c>
+      <c r="B1817" s="3" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C1817" t="str">
+        <f t="shared" si="2"/>
+        <v>Arash Alavi</v>
+      </c>
+      <c r="D1817" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1817" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1818" s="3" t="s">
+        <v>1956</v>
+      </c>
+      <c r="B1818" s="3" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C1818" t="str">
+        <f t="shared" si="2"/>
+        <v>Cheng Cai</v>
+      </c>
+      <c r="D1818" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1818" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1819" s="3" t="s">
+        <v>2567</v>
+      </c>
+      <c r="B1819" s="3" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C1819" t="str">
+        <f t="shared" si="2"/>
+        <v>Anthony Canino</v>
+      </c>
+      <c r="D1819" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1819" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1820" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B1820" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C1820" t="str">
+        <f t="shared" si="2"/>
+        <v>Guido Chari</v>
+      </c>
+      <c r="D1820" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1820" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1821" s="3" t="s">
+        <v>2980</v>
+      </c>
+      <c r="B1821" s="3" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C1821" t="str">
+        <f t="shared" si="2"/>
+        <v>Erin Dahlgren</v>
+      </c>
+      <c r="D1821" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1821" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1822" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B1822" s="3" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C1822" t="str">
+        <f t="shared" si="2"/>
+        <v>Lukas Diekmann</v>
+      </c>
+      <c r="D1822" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1822" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1823" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1823" s="3" t="s">
+        <v>1962</v>
+      </c>
+      <c r="C1823" t="str">
+        <f t="shared" si="2"/>
+        <v>John Feser</v>
+      </c>
+      <c r="D1823" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1823" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1824" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1824" s="3" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C1824" t="str">
+        <f t="shared" si="2"/>
+        <v>Simon Fowler</v>
+      </c>
+      <c r="D1824" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1824" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1825" s="3" t="s">
+        <v>2983</v>
+      </c>
+      <c r="B1825" s="3" t="s">
+        <v>2984</v>
+      </c>
+      <c r="C1825" t="str">
+        <f t="shared" si="2"/>
+        <v>Hannah Gommerstadt</v>
+      </c>
+      <c r="D1825" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1825" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1826" s="3" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B1826" s="3" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C1826" t="str">
+        <f t="shared" si="2"/>
+        <v>Sehun Jeong</v>
+      </c>
+      <c r="D1826" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1826" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1827" s="3" t="s">
+        <v>1978</v>
+      </c>
+      <c r="B1827" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1827" t="str">
+        <f t="shared" si="2"/>
+        <v>Sungho Lee</v>
+      </c>
+      <c r="D1827" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1827" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1828" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="B1828" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1828" t="str">
+        <f t="shared" si="2"/>
+        <v>Yue Li</v>
+      </c>
+      <c r="D1828" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1828" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1829" s="3" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B1829" s="3" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C1829" t="str">
+        <f t="shared" si="2"/>
+        <v>Julian Mackay</v>
+      </c>
+      <c r="D1829" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1829" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1830" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="B1830" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="C1830" t="str">
+        <f t="shared" si="2"/>
+        <v>Fabian Muehlboeck</v>
+      </c>
+      <c r="D1830" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1830" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1831" s="3" t="s">
+        <v>2703</v>
+      </c>
+      <c r="B1831" s="3" t="s">
+        <v>2704</v>
+      </c>
+      <c r="C1831" t="str">
+        <f t="shared" si="2"/>
+        <v>Wytse Oortwijn</v>
+      </c>
+      <c r="D1831" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1831" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1832" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="B1832" s="3" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C1832" t="str">
+        <f t="shared" si="2"/>
+        <v>Jesper Oqvist</v>
+      </c>
+      <c r="D1832" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1832" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1833" s="3" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1833" s="3" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C1833" t="str">
+        <f t="shared" si="2"/>
+        <v>Saswat Padhi</v>
+      </c>
+      <c r="D1833" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1833" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1834" s="3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B1834" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1834" t="str">
+        <f t="shared" si="2"/>
+        <v>Jihyeok Park</v>
+      </c>
+      <c r="D1834" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1834" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1835" s="3" t="s">
+        <v>2986</v>
+      </c>
+      <c r="B1835" s="3" t="s">
+        <v>2987</v>
+      </c>
+      <c r="C1835" t="str">
+        <f t="shared" si="2"/>
+        <v>Junqiao Qiu</v>
+      </c>
+      <c r="D1835" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1835" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1836" s="3" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B1836" s="3" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C1836" t="str">
+        <f t="shared" si="2"/>
+        <v>Gabriel Radanne</v>
+      </c>
+      <c r="D1836" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1836" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1837" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1837" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1837" t="str">
+        <f t="shared" si="2"/>
+        <v>John Sarracino</v>
+      </c>
+      <c r="D1837" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1837" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1838" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B1838" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C1838" t="str">
+        <f t="shared" si="2"/>
+        <v>Quentin Stiévenart</v>
+      </c>
+      <c r="D1838" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1838" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1839" s="3" t="s">
+        <v>1947</v>
+      </c>
+      <c r="B1839" s="3" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C1839" t="str">
+        <f t="shared" si="2"/>
+        <v>Janwillem Swalens</v>
+      </c>
+      <c r="D1839" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1839" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1840" s="3" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B1840" s="3" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C1840" t="str">
+        <f t="shared" si="2"/>
+        <v>Tian Tan</v>
+      </c>
+      <c r="D1840" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1840" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1841" s="3" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B1841" s="3" t="s">
+        <v>2226</v>
+      </c>
+      <c r="C1841" t="str">
+        <f t="shared" si="2"/>
+        <v>Qiyi Tang</v>
+      </c>
+      <c r="D1841" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1841" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1842" s="3" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B1842" s="3" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C1842" t="str">
+        <f t="shared" si="2"/>
+        <v>Matías Toro</v>
+      </c>
+      <c r="D1842" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1842" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1843" s="3" t="s">
+        <v>2959</v>
+      </c>
+      <c r="B1843" s="3" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C1843" t="str">
+        <f t="shared" si="2"/>
+        <v>Alexi Turcotte</v>
+      </c>
+      <c r="D1843" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1843" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1844" s="3" t="s">
+        <v>2427</v>
+      </c>
+      <c r="B1844" s="3" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C1844" t="str">
+        <f t="shared" si="2"/>
+        <v>Jyothi Vedurada</v>
+      </c>
+      <c r="D1844" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="E1844" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1845" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="B1845" s="3" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C1845" t="str">
+        <f t="shared" si="2"/>
+        <v>Colin Gordon</v>
+      </c>
+      <c r="D1845" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1845" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1846" s="3" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B1846" s="3" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C1846" t="str">
+        <f t="shared" si="2"/>
+        <v>Anders Møller</v>
+      </c>
+      <c r="D1846" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1846" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1847" s="3" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B1847" s="3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C1847" t="str">
+        <f t="shared" si="2"/>
+        <v>Maaz Bin Safeer Ahmad</v>
+      </c>
+      <c r="D1847" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1847" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1848" s="3" t="s">
+        <v>2994</v>
+      </c>
+      <c r="B1848" s="3" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C1848" t="str">
+        <f t="shared" si="2"/>
+        <v>Dominik Aumayr</v>
+      </c>
+      <c r="D1848" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1848" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1849" s="3" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1849" s="3" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C1849" t="str">
+        <f t="shared" si="2"/>
+        <v>Rohan Bavishi</v>
+      </c>
+      <c r="D1849" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1849" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1850" s="3" t="s">
+        <v>2997</v>
+      </c>
+      <c r="B1850" s="3" t="s">
+        <v>2998</v>
+      </c>
+      <c r="C1850" t="str">
+        <f t="shared" si="2"/>
+        <v>Jose Cambronero</v>
+      </c>
+      <c r="D1850" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1850" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1851" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B1851" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="C1851" t="str">
+        <f t="shared" si="2"/>
+        <v>Elias Castegren</v>
+      </c>
+      <c r="D1851" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1851" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1852" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B1852" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1852" t="str">
+        <f t="shared" ref="C1852:C1915" si="3">_xlfn.CONCAT(A1852," ",B1852)</f>
+        <v>Yanju Chen</v>
+      </c>
+      <c r="D1852" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1852" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1853" s="3" t="s">
+        <v>3000</v>
+      </c>
+      <c r="B1853" s="3" t="s">
+        <v>1956</v>
+      </c>
+      <c r="C1853" t="str">
+        <f t="shared" si="3"/>
+        <v>Jianyi Cheng</v>
+      </c>
+      <c r="D1853" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1853" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1854" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B1854" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C1854" t="str">
+        <f t="shared" si="3"/>
+        <v>Vikraman Choudhury</v>
+      </c>
+      <c r="D1854" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1854" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1855" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1855" s="3" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C1855" t="str">
+        <f t="shared" si="3"/>
+        <v>Michael Coblenz</v>
+      </c>
+      <c r="D1855" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1855" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1856" s="3" t="s">
+        <v>3001</v>
+      </c>
+      <c r="B1856" s="3" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C1856" t="str">
+        <f t="shared" si="3"/>
+        <v>Saikat Dutta</v>
+      </c>
+      <c r="D1856" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1856" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1857" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1857" s="3" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C1857" t="str">
+        <f t="shared" si="3"/>
+        <v>Ivan Gavran</v>
+      </c>
+      <c r="D1857" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1857" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1858" s="3" t="s">
+        <v>3004</v>
+      </c>
+      <c r="B1858" s="3" t="s">
+        <v>3005</v>
+      </c>
+      <c r="C1858" t="str">
+        <f t="shared" si="3"/>
+        <v>Kaan Genç</v>
+      </c>
+      <c r="D1858" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1858" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1859" s="3" t="s">
+        <v>3006</v>
+      </c>
+      <c r="B1859" s="3" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C1859" t="str">
+        <f t="shared" si="3"/>
+        <v>Aina Linn Georges</v>
+      </c>
+      <c r="D1859" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1859" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1860" s="3" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B1860" s="3" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C1860" t="str">
+        <f t="shared" si="3"/>
+        <v>Aman Goel</v>
+      </c>
+      <c r="D1860" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1860" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1861" s="3" t="s">
+        <v>3009</v>
+      </c>
+      <c r="B1861" s="3" t="s">
+        <v>3008</v>
+      </c>
+      <c r="C1861" t="str">
+        <f t="shared" si="3"/>
+        <v>Aviral Goel</v>
+      </c>
+      <c r="D1861" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1861" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1862" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1862" s="3" t="s">
+        <v>2406</v>
+      </c>
+      <c r="C1862" t="str">
+        <f t="shared" si="3"/>
+        <v>Paul He</v>
+      </c>
+      <c r="D1862" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1862" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1863" s="3" t="s">
+        <v>3010</v>
+      </c>
+      <c r="B1863" s="3" t="s">
+        <v>3011</v>
+      </c>
+      <c r="C1863" t="str">
+        <f t="shared" si="3"/>
+        <v>Yann Herklotz</v>
+      </c>
+      <c r="D1863" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1863" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1864" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1864" s="3" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C1864" t="str">
+        <f t="shared" si="3"/>
+        <v>David Holland</v>
+      </c>
+      <c r="D1864" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1864" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1865" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B1865" s="3" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C1865" t="str">
+        <f t="shared" si="3"/>
+        <v>Dan Iorga</v>
+      </c>
+      <c r="D1865" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1865" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1866" s="3" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B1866" s="3" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C1866" t="str">
+        <f t="shared" si="3"/>
+        <v>Abhinav Jangda</v>
+      </c>
+      <c r="D1866" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1866" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1867" s="3" t="s">
+        <v>3016</v>
+      </c>
+      <c r="B1867" s="3" t="s">
+        <v>3017</v>
+      </c>
+      <c r="C1867" t="str">
+        <f t="shared" si="3"/>
+        <v>Sophie Kaleba</v>
+      </c>
+      <c r="D1867" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1867" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1868" s="3" t="s">
+        <v>3018</v>
+      </c>
+      <c r="B1868" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C1868" t="str">
+        <f t="shared" si="3"/>
+        <v>Mijung Kim</v>
+      </c>
+      <c r="D1868" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1868" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1869" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1869" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C1869" t="str">
+        <f t="shared" si="3"/>
+        <v>Wen Kokke</v>
+      </c>
+      <c r="D1869" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1869" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1870" s="3" t="s">
+        <v>3019</v>
+      </c>
+      <c r="B1870" s="3" t="s">
+        <v>3020</v>
+      </c>
+      <c r="C1870" t="str">
+        <f t="shared" si="3"/>
+        <v>Srđan Krstić</v>
+      </c>
+      <c r="D1870" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1870" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1871" s="3" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B1871" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C1871" t="str">
+        <f t="shared" si="3"/>
+        <v>Ton Chanh Le</v>
+      </c>
+      <c r="D1871" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1871" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1872" s="3" t="s">
+        <v>3022</v>
+      </c>
+      <c r="B1872" s="3" t="s">
+        <v>3023</v>
+      </c>
+      <c r="C1872" t="str">
+        <f t="shared" si="3"/>
+        <v>Caroline Lemieux</v>
+      </c>
+      <c r="D1872" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1872" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1873" s="3" t="s">
+        <v>3024</v>
+      </c>
+      <c r="B1873" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C1873" t="str">
+        <f t="shared" si="3"/>
+        <v>Yun Lin</v>
+      </c>
+      <c r="D1873" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1873" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1874" s="3" t="s">
+        <v>3025</v>
+      </c>
+      <c r="B1874" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1874" t="str">
+        <f t="shared" si="3"/>
+        <v>Zhengyang Liu</v>
+      </c>
+      <c r="D1874" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1874" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1875" s="3" t="s">
+        <v>3026</v>
+      </c>
+      <c r="B1875" s="3" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C1875" t="str">
+        <f t="shared" si="3"/>
+        <v>Linghui Luo</v>
+      </c>
+      <c r="D1875" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1875" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1876" s="3" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B1876" s="3" t="s">
+        <v>3028</v>
+      </c>
+      <c r="C1876" t="str">
+        <f t="shared" si="3"/>
+        <v>Umang Mathur</v>
+      </c>
+      <c r="D1876" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1876" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1877" s="3" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B1877" s="3" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C1877" t="str">
+        <f t="shared" si="3"/>
+        <v>Anders Miltner</v>
+      </c>
+      <c r="D1877" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1877" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1878" s="3" t="s">
+        <v>3029</v>
+      </c>
+      <c r="B1878" s="3" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C1878" t="str">
+        <f t="shared" si="3"/>
+        <v>Raúl Monti</v>
+      </c>
+      <c r="D1878" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1878" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1879" s="3" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B1879" s="3" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C1879" t="str">
+        <f t="shared" si="3"/>
+        <v>Krishna Narasimhan</v>
+      </c>
+      <c r="D1879" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1879" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1880" s="3" t="s">
+        <v>3032</v>
+      </c>
+      <c r="B1880" s="3" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C1880" t="str">
+        <f t="shared" si="3"/>
+        <v>Benjamin Barslev Nielsen</v>
+      </c>
+      <c r="D1880" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1880" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1881" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B1881" s="3" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C1881" t="str">
+        <f t="shared" si="3"/>
+        <v>Rachit Nigam</v>
+      </c>
+      <c r="D1881" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1881" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1882" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B1882" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C1882" t="str">
+        <f t="shared" si="3"/>
+        <v>Yuki Nishida</v>
+      </c>
+      <c r="D1882" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1882" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1883" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1883" s="3" t="s">
+        <v>3034</v>
+      </c>
+      <c r="C1883" t="str">
+        <f t="shared" si="3"/>
+        <v>Martin Nowack</v>
+      </c>
+      <c r="D1883" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1883" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1884" s="3" t="s">
+        <v>3035</v>
+      </c>
+      <c r="B1884" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1884" t="str">
+        <f t="shared" si="3"/>
+        <v>Jihee Park</v>
+      </c>
+      <c r="D1884" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1884" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1885" s="3" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B1885" s="3" t="s">
+        <v>3037</v>
+      </c>
+      <c r="C1885" t="str">
+        <f t="shared" si="3"/>
+        <v>Hernan Ponce de Leon</v>
+      </c>
+      <c r="D1885" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1885" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1886" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1886" s="3" t="s">
+        <v>3038</v>
+      </c>
+      <c r="C1886" t="str">
+        <f t="shared" si="3"/>
+        <v>Andrea Rosà</v>
+      </c>
+      <c r="D1886" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1886" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1887" s="3" t="s">
+        <v>2028</v>
+      </c>
+      <c r="B1887" s="3" t="s">
+        <v>3039</v>
+      </c>
+      <c r="C1887" t="str">
+        <f t="shared" si="3"/>
+        <v>Zachary Sisco</v>
+      </c>
+      <c r="D1887" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1887" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1888" s="3" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B1888" s="3" t="s">
+        <v>3041</v>
+      </c>
+      <c r="C1888" t="str">
+        <f t="shared" si="3"/>
+        <v>Aishwarya Sivaraman</v>
+      </c>
+      <c r="D1888" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1888" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1889" s="3" t="s">
+        <v>3042</v>
+      </c>
+      <c r="B1889" s="3" t="s">
+        <v>3043</v>
+      </c>
+      <c r="C1889" t="str">
+        <f t="shared" si="3"/>
+        <v>Sunbeom So</v>
+      </c>
+      <c r="D1889" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1889" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1890" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="B1890" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C1890" t="str">
+        <f t="shared" si="3"/>
+        <v>Leo Stefanesco</v>
+      </c>
+      <c r="D1890" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1890" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1891" s="3" t="s">
+        <v>3044</v>
+      </c>
+      <c r="B1891" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C1891" t="str">
+        <f t="shared" si="3"/>
+        <v>Ting Su</v>
+      </c>
+      <c r="D1891" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1891" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1892" s="3" t="s">
+        <v>3045</v>
+      </c>
+      <c r="B1892" s="3" t="s">
+        <v>3046</v>
+      </c>
+      <c r="C1892" t="str">
+        <f t="shared" si="3"/>
+        <v>Alexa VanHattum</v>
+      </c>
+      <c r="D1892" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1892" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1893" s="3" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B1893" s="3" t="s">
+        <v>3048</v>
+      </c>
+      <c r="C1893" t="str">
+        <f t="shared" si="3"/>
+        <v>Oskar Haarklou Veileborg</v>
+      </c>
+      <c r="D1893" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1893" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1894" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B1894" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1894" t="str">
+        <f t="shared" si="3"/>
+        <v>Guannan Wei</v>
+      </c>
+      <c r="D1894" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1894" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1895" s="3" t="s">
+        <v>3049</v>
+      </c>
+      <c r="B1895" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1895" t="str">
+        <f t="shared" si="3"/>
+        <v>Chengyu Zhang</v>
+      </c>
+      <c r="D1895" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1895" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1896" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B1896" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1896" t="str">
+        <f t="shared" si="3"/>
+        <v>Rui Zhang</v>
+      </c>
+      <c r="D1896" s="3" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E1896" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1897" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="B1897" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C1897" t="str">
+        <f t="shared" si="3"/>
+        <v>Jonathan Bell</v>
+      </c>
+      <c r="D1897" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1897" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1898" s="3" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B1898" s="3" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C1898" t="str">
+        <f t="shared" si="3"/>
+        <v>Luís Pina</v>
+      </c>
+      <c r="D1898" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1898" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1899" s="3" t="s">
+        <v>3051</v>
+      </c>
+      <c r="B1899" s="3" t="s">
+        <v>3052</v>
+      </c>
+      <c r="C1899" t="str">
+        <f t="shared" si="3"/>
+        <v>Oskar Abrahamsson</v>
+      </c>
+      <c r="D1899" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1899" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1900" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="B1900" s="3" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C1900" t="str">
+        <f t="shared" si="3"/>
+        <v>Arthur Azevedo de Amorim</v>
+      </c>
+      <c r="D1900" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1900" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1901" s="3" t="s">
+        <v>2849</v>
+      </c>
+      <c r="B1901" s="3" t="s">
+        <v>2850</v>
+      </c>
+      <c r="C1901" t="str">
+        <f t="shared" si="3"/>
+        <v>Subarno Banerjee</v>
+      </c>
+      <c r="D1901" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1901" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1902" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B1902" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C1902" t="str">
+        <f t="shared" si="3"/>
+        <v>Shrutarshi Basu</v>
+      </c>
+      <c r="D1902" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1902" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1903" s="3" t="s">
+        <v>1874</v>
+      </c>
+      <c r="B1903" s="3" t="s">
+        <v>2996</v>
+      </c>
+      <c r="C1903" t="str">
+        <f t="shared" si="3"/>
+        <v>Rohan Bavishi</v>
+      </c>
+      <c r="D1903" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1903" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1904" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="B1904" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="C1904" t="str">
+        <f t="shared" si="3"/>
+        <v>Julia Belyakova</v>
+      </c>
+      <c r="D1904" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1904" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1905" s="3" t="s">
+        <v>3054</v>
+      </c>
+      <c r="B1905" s="3" t="s">
+        <v>3055</v>
+      </c>
+      <c r="C1905" t="str">
+        <f t="shared" si="3"/>
+        <v>Abhishek Bichhawat</v>
+      </c>
+      <c r="D1905" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1905" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1906" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B1906" s="3" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C1906" t="str">
+        <f t="shared" si="3"/>
+        <v>Giovanni Campagna</v>
+      </c>
+      <c r="D1906" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1906" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1907" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="B1907" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="C1907" t="str">
+        <f t="shared" si="3"/>
+        <v>Elias Castegren</v>
+      </c>
+      <c r="D1907" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1907" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1908" s="3" t="s">
+        <v>3057</v>
+      </c>
+      <c r="B1908" s="3" t="s">
+        <v>3058</v>
+      </c>
+      <c r="C1908" t="str">
+        <f t="shared" si="3"/>
+        <v>Sunjay Cauligi</v>
+      </c>
+      <c r="D1908" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1908" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1909" s="3" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B1909" s="3" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C1909" t="str">
+        <f t="shared" si="3"/>
+        <v>Tej Chajed</v>
+      </c>
+      <c r="D1909" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1909" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1910" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B1910" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C1910" t="str">
+        <f t="shared" si="3"/>
+        <v>Tiago Cogumbreiro</v>
+      </c>
+      <c r="D1910" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1910" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1911" s="3" t="s">
+        <v>3061</v>
+      </c>
+      <c r="B1911" s="3" t="s">
+        <v>3062</v>
+      </c>
+      <c r="C1911" t="str">
+        <f t="shared" si="3"/>
+        <v>Laxman Dhulipala</v>
+      </c>
+      <c r="D1911" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1911" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1912" s="3" t="s">
+        <v>3063</v>
+      </c>
+      <c r="B1912" s="3" t="s">
+        <v>2688</v>
+      </c>
+      <c r="C1912" t="str">
+        <f t="shared" si="3"/>
+        <v>Bui Phi Diep</v>
+      </c>
+      <c r="D1912" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1912" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1913" s="3" t="s">
+        <v>3064</v>
+      </c>
+      <c r="B1913" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="C1913" t="str">
+        <f t="shared" si="3"/>
+        <v>Vimuth Fernando</v>
+      </c>
+      <c r="D1913" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1913" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1914" s="3" t="s">
+        <v>3065</v>
+      </c>
+      <c r="B1914" s="3" t="s">
+        <v>3066</v>
+      </c>
+      <c r="C1914" t="str">
+        <f t="shared" si="3"/>
+        <v>Elazar Gershuni</v>
+      </c>
+      <c r="D1914" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1914" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1915" s="3" t="s">
+        <v>2298</v>
+      </c>
+      <c r="B1915" s="3" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C1915" t="str">
+        <f t="shared" si="3"/>
+        <v>Nick Giannarakis</v>
+      </c>
+      <c r="D1915" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1915" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1916" s="3" t="s">
+        <v>3067</v>
+      </c>
+      <c r="B1916" s="3" t="s">
+        <v>3068</v>
+      </c>
+      <c r="C1916" t="str">
+        <f t="shared" ref="C1916:C1979" si="4">_xlfn.CONCAT(A1916," ",B1916)</f>
+        <v>Kiran Gopinathan</v>
+      </c>
+      <c r="D1916" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1916" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1917" s="3" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B1917" s="3" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C1917" t="str">
+        <f t="shared" si="4"/>
+        <v>Sankha Narayan Guria</v>
+      </c>
+      <c r="D1917" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1917" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1918" s="3" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B1918" s="3" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C1918" t="str">
+        <f t="shared" si="4"/>
+        <v>Abhinav Jangda</v>
+      </c>
+      <c r="D1918" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1918" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1919" s="3" t="s">
+        <v>2047</v>
+      </c>
+      <c r="B1919" s="3" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C1919" t="str">
+        <f t="shared" si="4"/>
+        <v>Jinseong Jeon</v>
+      </c>
+      <c r="D1919" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1919" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1920" s="3" t="s">
+        <v>3071</v>
+      </c>
+      <c r="B1920" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1920" t="str">
+        <f t="shared" si="4"/>
+        <v>Hanru Jiang</v>
+      </c>
+      <c r="D1920" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1920" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1921" s="3" t="s">
+        <v>3072</v>
+      </c>
+      <c r="B1921" s="3" t="s">
+        <v>3073</v>
+      </c>
+      <c r="C1921" t="str">
+        <f t="shared" si="4"/>
+        <v>Christian Gram Kalhauge</v>
+      </c>
+      <c r="D1921" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1921" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1922" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1922" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C1922" t="str">
+        <f t="shared" si="4"/>
+        <v>Timotej Kapus</v>
+      </c>
+      <c r="D1922" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1922" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1923" s="3" t="s">
+        <v>2050</v>
+      </c>
+      <c r="B1923" s="3" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C1923" t="str">
+        <f t="shared" si="4"/>
+        <v>Madhukar Kedlaya</v>
+      </c>
+      <c r="D1923" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1923" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1924" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1924" s="3" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C1924" t="str">
+        <f t="shared" si="4"/>
+        <v>Martin Kellogg</v>
+      </c>
+      <c r="D1924" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1924" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1925" s="3" t="s">
+        <v>3075</v>
+      </c>
+      <c r="B1925" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C1925" t="str">
+        <f t="shared" si="4"/>
+        <v>Tanvir Ahmed Khan</v>
+      </c>
+      <c r="D1925" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1925" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1926" s="3" t="s">
+        <v>3076</v>
+      </c>
+      <c r="B1926" s="3" t="s">
+        <v>3077</v>
+      </c>
+      <c r="C1926" t="str">
+        <f t="shared" si="4"/>
+        <v>Tristan Knoth</v>
+      </c>
+      <c r="D1926" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1926" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1927" s="3" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B1927" s="3" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C1927" t="str">
+        <f t="shared" si="4"/>
+        <v>Michalis Kokologiannakis</v>
+      </c>
+      <c r="D1927" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1927" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1928" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B1928" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C1928" t="str">
+        <f t="shared" si="4"/>
+        <v>Chaitanya Koparkar</v>
+      </c>
+      <c r="D1928" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1928" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1929" s="3" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B1929" s="3" t="s">
+        <v>3081</v>
+      </c>
+      <c r="C1929" t="str">
+        <f t="shared" si="4"/>
+        <v>Kevin Laeufer</v>
+      </c>
+      <c r="D1929" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1929" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1930" s="3" t="s">
+        <v>3021</v>
+      </c>
+      <c r="B1930" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C1930" t="str">
+        <f t="shared" si="4"/>
+        <v>Ton Chanh Le</v>
+      </c>
+      <c r="D1930" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1930" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1931" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1931" s="3" t="s">
+        <v>3082</v>
+      </c>
+      <c r="C1931" t="str">
+        <f t="shared" si="4"/>
+        <v>Thomas Lemberger</v>
+      </c>
+      <c r="D1931" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1931" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1932" s="3" t="s">
+        <v>3080</v>
+      </c>
+      <c r="B1932" s="3" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C1932" t="str">
+        <f t="shared" si="4"/>
+        <v>Kevin Liao</v>
+      </c>
+      <c r="D1932" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1932" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1933" s="3" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B1933" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C1933" t="str">
+        <f t="shared" si="4"/>
+        <v>Lun Liu</v>
+      </c>
+      <c r="D1933" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1933" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1934" s="3" t="s">
+        <v>3084</v>
+      </c>
+      <c r="B1934" s="3" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C1934" t="str">
+        <f t="shared" si="4"/>
+        <v>Blake Loring</v>
+      </c>
+      <c r="D1934" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1934" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1935" s="3" t="s">
+        <v>1938</v>
+      </c>
+      <c r="B1935" s="3" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C1935" t="str">
+        <f t="shared" si="4"/>
+        <v>Julian Mackay</v>
+      </c>
+      <c r="D1935" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1935" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1936" s="3" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B1936" s="3" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C1936" t="str">
+        <f t="shared" si="4"/>
+        <v>Rasool Maghareh</v>
+      </c>
+      <c r="D1936" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1936" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1937" s="3" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B1937" s="3" t="s">
+        <v>3028</v>
+      </c>
+      <c r="C1937" t="str">
+        <f t="shared" si="4"/>
+        <v>Umang Mathur</v>
+      </c>
+      <c r="D1937" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1937" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1938" s="3" t="s">
+        <v>3086</v>
+      </c>
+      <c r="B1938" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C1938" t="str">
+        <f t="shared" si="4"/>
+        <v>Phúc C. Nguyễn</v>
+      </c>
+      <c r="D1938" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1938" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1939" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B1939" s="3" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C1939" t="str">
+        <f t="shared" si="4"/>
+        <v>Rachit Nigam</v>
+      </c>
+      <c r="D1939" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1939" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1940" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B1940" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C1940" t="str">
+        <f t="shared" si="4"/>
+        <v>Goran Piskachev</v>
+      </c>
+      <c r="D1940" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1940" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1941" s="3" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B1941" s="3" t="s">
+        <v>3037</v>
+      </c>
+      <c r="C1941" t="str">
+        <f t="shared" si="4"/>
+        <v>Hernan Ponce de Leon</v>
+      </c>
+      <c r="D1941" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1941" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1942" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1942" s="3" t="s">
+        <v>3038</v>
+      </c>
+      <c r="C1942" t="str">
+        <f t="shared" si="4"/>
+        <v>Andrea Rosà</v>
+      </c>
+      <c r="D1942" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1942" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1943" s="3" t="s">
+        <v>3087</v>
+      </c>
+      <c r="B1943" s="3" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C1943" t="str">
+        <f t="shared" si="4"/>
+        <v>Gabriela Sampaio</v>
+      </c>
+      <c r="D1943" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1943" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1944" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1944" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C1944" t="str">
+        <f t="shared" si="4"/>
+        <v>John Sarracino</v>
+      </c>
+      <c r="D1944" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1944" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1945" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="B1945" s="3" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C1945" t="str">
+        <f t="shared" si="4"/>
+        <v>Daniel Schemmel</v>
+      </c>
+      <c r="D1945" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1945" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1946" s="3" t="s">
+        <v>3040</v>
+      </c>
+      <c r="B1946" s="3" t="s">
+        <v>3041</v>
+      </c>
+      <c r="C1946" t="str">
+        <f t="shared" si="4"/>
+        <v>Aishwarya Sivaraman</v>
+      </c>
+      <c r="D1946" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1946" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1947" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1947" s="3" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C1947" t="str">
+        <f t="shared" si="4"/>
+        <v>Arun Subramaniyan</v>
+      </c>
+      <c r="D1947" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1947" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1948" s="3" t="s">
+        <v>3091</v>
+      </c>
+      <c r="B1948" s="3" t="s">
+        <v>3092</v>
+      </c>
+      <c r="C1948" t="str">
+        <f t="shared" si="4"/>
+        <v>Kirshanthan Sundararajah</v>
+      </c>
+      <c r="D1948" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1948" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1949" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="B1949" s="3" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C1949" t="str">
+        <f t="shared" si="4"/>
+        <v>Yong Kiam Tan</v>
+      </c>
+      <c r="D1949" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1949" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1950" s="3" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B1950" s="3" t="s">
+        <v>3094</v>
+      </c>
+      <c r="C1950" t="str">
+        <f t="shared" si="4"/>
+        <v>Laura Titolo</v>
+      </c>
+      <c r="D1950" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1950" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1951" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B1951" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C1951" t="str">
+        <f t="shared" si="4"/>
+        <v>Ningning Xie</v>
+      </c>
+      <c r="D1951" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1951" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1952" s="3" t="s">
+        <v>3095</v>
+      </c>
+      <c r="B1952" s="3" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C1952" t="str">
+        <f t="shared" si="4"/>
+        <v>Zikang Xiong</v>
+      </c>
+      <c r="D1952" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1952" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1953" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B1953" s="3" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C1953" t="str">
+        <f t="shared" si="4"/>
+        <v>Anton Xue</v>
+      </c>
+      <c r="D1953" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1953" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1954" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B1954" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="C1954" t="str">
+        <f t="shared" si="4"/>
+        <v>Adarsh Yoga</v>
+      </c>
+      <c r="D1954" s="3" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E1954" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1955" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="B1955" s="3" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C1955" t="str">
+        <f t="shared" si="4"/>
+        <v>Benjamin Delaware</v>
+      </c>
+      <c r="D1955" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1955" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1956" s="3" t="s">
+        <v>2387</v>
+      </c>
+      <c r="B1956" s="3" t="s">
+        <v>2388</v>
+      </c>
+      <c r="C1956" t="str">
+        <f t="shared" si="4"/>
+        <v>Jeehoon Kang</v>
+      </c>
+      <c r="D1956" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1956" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1957" s="3" t="s">
+        <v>3098</v>
+      </c>
+      <c r="B1957" s="3" t="s">
+        <v>3099</v>
+      </c>
+      <c r="C1957" t="str">
+        <f t="shared" si="4"/>
+        <v>Anitha Gollamudi</v>
+      </c>
+      <c r="D1957" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1957" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1958" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1958" s="3" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C1958" t="str">
+        <f t="shared" si="4"/>
+        <v>Andrew Hirsch</v>
+      </c>
+      <c r="D1958" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1958" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1959" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1959" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1959" t="str">
+        <f t="shared" si="4"/>
+        <v>Calvin Smith</v>
+      </c>
+      <c r="D1959" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1959" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1960" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1960" s="3" t="s">
+        <v>3101</v>
+      </c>
+      <c r="C1960" t="str">
+        <f t="shared" si="4"/>
+        <v>Christian Roldán</v>
+      </c>
+      <c r="D1960" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1960" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1961" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="B1961" s="3" t="s">
+        <v>2377</v>
+      </c>
+      <c r="C1961" t="str">
+        <f t="shared" si="4"/>
+        <v>Daniel Dietsch</v>
+      </c>
+      <c r="D1961" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1961" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1962" s="3" t="s">
+        <v>2404</v>
+      </c>
+      <c r="B1962" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1962" t="str">
+        <f t="shared" si="4"/>
+        <v>Di Wang</v>
+      </c>
+      <c r="D1962" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1962" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1963" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="B1963" s="3" t="s">
+        <v>3102</v>
+      </c>
+      <c r="C1963" t="str">
+        <f t="shared" si="4"/>
+        <v>Guillaume Allais</v>
+      </c>
+      <c r="D1963" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1963" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1964" s="3" t="s">
+        <v>3103</v>
+      </c>
+      <c r="B1964" s="3" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C1964" t="str">
+        <f t="shared" si="4"/>
+        <v>Ismail Kuru</v>
+      </c>
+      <c r="D1964" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1964" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1965" s="3" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B1965" s="3" t="s">
+        <v>3105</v>
+      </c>
+      <c r="C1965" t="str">
+        <f t="shared" si="4"/>
+        <v>Jennifer Hackett</v>
+      </c>
+      <c r="D1965" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1965" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1966" s="3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B1966" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1966" t="str">
+        <f t="shared" si="4"/>
+        <v>Jihyeok Park</v>
+      </c>
+      <c r="D1966" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1966" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1967" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1967" s="3" t="s">
+        <v>3106</v>
+      </c>
+      <c r="C1967" t="str">
+        <f t="shared" si="4"/>
+        <v>James Parker</v>
+      </c>
+      <c r="D1967" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1967" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1968" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="B1968" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C1968" t="str">
+        <f t="shared" si="4"/>
+        <v>Manuel Rigger</v>
+      </c>
+      <c r="D1968" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1968" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1969" s="3" t="s">
+        <v>2638</v>
+      </c>
+      <c r="B1969" s="3" t="s">
+        <v>2639</v>
+      </c>
+      <c r="C1969" t="str">
+        <f t="shared" si="4"/>
+        <v>Maryam Dabaghchian</v>
+      </c>
+      <c r="D1969" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1969" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1970" s="3" t="s">
+        <v>3078</v>
+      </c>
+      <c r="B1970" s="3" t="s">
+        <v>3079</v>
+      </c>
+      <c r="C1970" t="str">
+        <f t="shared" si="4"/>
+        <v>Michalis Kokologiannakis</v>
+      </c>
+      <c r="D1970" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1970" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1971" s="3" t="s">
+        <v>2988</v>
+      </c>
+      <c r="B1971" s="3" t="s">
+        <v>2989</v>
+      </c>
+      <c r="C1971" t="str">
+        <f t="shared" si="4"/>
+        <v>Matías Toro</v>
+      </c>
+      <c r="D1971" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1971" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1972" s="3" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B1972" s="3" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C1972" t="str">
+        <f t="shared" si="4"/>
+        <v>Saswat Padhi</v>
+      </c>
+      <c r="D1972" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1972" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1973" s="3" t="s">
+        <v>3036</v>
+      </c>
+      <c r="B1973" s="3" t="s">
+        <v>3037</v>
+      </c>
+      <c r="C1973" t="str">
+        <f t="shared" si="4"/>
+        <v>Hernan Ponce de Leon</v>
+      </c>
+      <c r="D1973" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1973" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1974" s="3" t="s">
+        <v>1989</v>
+      </c>
+      <c r="B1974" s="3" t="s">
+        <v>1990</v>
+      </c>
+      <c r="C1974" t="str">
+        <f t="shared" si="4"/>
+        <v>Gabriel Radanne</v>
+      </c>
+      <c r="D1974" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1974" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1975" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B1975" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C1975" t="str">
+        <f t="shared" si="4"/>
+        <v>Ravi Mangal</v>
+      </c>
+      <c r="D1975" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1975" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1976" s="3" t="s">
+        <v>3107</v>
+      </c>
+      <c r="B1976" s="3" t="s">
+        <v>3108</v>
+      </c>
+      <c r="C1976" t="str">
+        <f t="shared" si="4"/>
+        <v>Sandra Dylus</v>
+      </c>
+      <c r="D1976" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1976" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1977" s="3" t="s">
+        <v>3069</v>
+      </c>
+      <c r="B1977" s="3" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C1977" t="str">
+        <f t="shared" si="4"/>
+        <v>Sankha Narayan Guria</v>
+      </c>
+      <c r="D1977" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1977" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1978" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B1978" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1978" t="str">
+        <f t="shared" si="4"/>
+        <v>Shuai Wang</v>
+      </c>
+      <c r="D1978" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1978" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1979" s="3" t="s">
+        <v>3109</v>
+      </c>
+      <c r="B1979" s="3" t="s">
+        <v>3110</v>
+      </c>
+      <c r="C1979" t="str">
+        <f t="shared" si="4"/>
+        <v>Stefan K. Muller</v>
+      </c>
+      <c r="D1979" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1979" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1980" s="3" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B1980" s="3" t="s">
+        <v>3112</v>
+      </c>
+      <c r="C1980" t="str">
+        <f t="shared" ref="C1980:C2043" si="5">_xlfn.CONCAT(A1980," ",B1980)</f>
+        <v>Stefania Dumbrava</v>
+      </c>
+      <c r="D1980" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1980" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1981" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1981" s="3" t="s">
+        <v>2402</v>
+      </c>
+      <c r="C1981" t="str">
+        <f t="shared" si="5"/>
+        <v>David Swasey</v>
+      </c>
+      <c r="D1981" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1981" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1982" s="3" t="s">
+        <v>3059</v>
+      </c>
+      <c r="B1982" s="3" t="s">
+        <v>3060</v>
+      </c>
+      <c r="C1982" t="str">
+        <f t="shared" si="5"/>
+        <v>Tej Chajed</v>
+      </c>
+      <c r="D1982" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1982" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1983" s="3" t="s">
+        <v>3113</v>
+      </c>
+      <c r="B1983" s="3" t="s">
+        <v>3114</v>
+      </c>
+      <c r="C1983" t="str">
+        <f t="shared" si="5"/>
+        <v>Dmitriy Traytel</v>
+      </c>
+      <c r="D1983" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1983" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1984" s="3" t="s">
+        <v>3027</v>
+      </c>
+      <c r="B1984" s="3" t="s">
+        <v>3028</v>
+      </c>
+      <c r="C1984" t="str">
+        <f t="shared" si="5"/>
+        <v>Umang Mathur</v>
+      </c>
+      <c r="D1984" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1984" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1985" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1985" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C1985" t="str">
+        <f t="shared" si="5"/>
+        <v>Uri Alon</v>
+      </c>
+      <c r="D1985" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1985" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1986" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="B1986" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C1986" t="str">
+        <f t="shared" si="5"/>
+        <v>Marco Vassena</v>
+      </c>
+      <c r="D1986" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1986" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1987" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B1987" s="3" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C1987" t="str">
+        <f t="shared" si="5"/>
+        <v>Wen Kokke</v>
+      </c>
+      <c r="D1987" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1987" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1988" s="3" t="s">
+        <v>3115</v>
+      </c>
+      <c r="B1988" s="3" t="s">
+        <v>3116</v>
+      </c>
+      <c r="C1988" t="str">
+        <f t="shared" si="5"/>
+        <v>Qianchuan Ye</v>
+      </c>
+      <c r="D1988" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1988" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1989" s="3" t="s">
+        <v>3117</v>
+      </c>
+      <c r="B1989" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C1989" t="str">
+        <f t="shared" si="5"/>
+        <v>Yoonseung Kim</v>
+      </c>
+      <c r="D1989" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1989" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1990" s="3" t="s">
+        <v>3118</v>
+      </c>
+      <c r="B1990" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C1990" t="str">
+        <f t="shared" si="5"/>
+        <v>Yuepeng Wang</v>
+      </c>
+      <c r="D1990" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1990" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1991" s="3" t="s">
+        <v>3119</v>
+      </c>
+      <c r="B1991" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C1991" t="str">
+        <f t="shared" si="5"/>
+        <v>Wonyeol Lee</v>
+      </c>
+      <c r="D1991" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1991" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1992" s="3" t="s">
+        <v>3120</v>
+      </c>
+      <c r="B1992" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C1992" t="str">
+        <f t="shared" si="5"/>
+        <v>Youngju Song</v>
+      </c>
+      <c r="D1992" s="3" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E1992" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1993" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="B1993" s="3" t="s">
+        <v>3122</v>
+      </c>
+      <c r="C1993" t="str">
+        <f t="shared" si="5"/>
+        <v>Emma Söderberg</v>
+      </c>
+      <c r="D1993" s="3" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E1993" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1994" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B1994" s="3" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C1994" t="str">
+        <f t="shared" si="5"/>
+        <v>Abel Gómez</v>
+      </c>
+      <c r="D1994" s="3" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E1994" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1995" s="3" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B1995" s="3" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C1995" t="str">
+        <f t="shared" si="5"/>
+        <v>Juliana Alves Pereira</v>
+      </c>
+      <c r="D1995" s="3" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E1995" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1996" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="B1996" s="3" t="s">
+        <v>3124</v>
+      </c>
+      <c r="C1996" t="str">
+        <f t="shared" si="5"/>
+        <v>Hugo Bruneliere</v>
+      </c>
+      <c r="D1996" s="3" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E1996" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1997" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B1997" s="3" t="s">
+        <v>3125</v>
+      </c>
+      <c r="C1997" t="str">
+        <f t="shared" si="5"/>
+        <v>Alejandro Catala</v>
+      </c>
+      <c r="D1997" s="3" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E1997" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1998" s="3" t="s">
+        <v>3126</v>
+      </c>
+      <c r="B1998" s="3" t="s">
+        <v>3127</v>
+      </c>
+      <c r="C1998" t="str">
+        <f t="shared" si="5"/>
+        <v>Luke Church</v>
+      </c>
+      <c r="D1998" s="3" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E1998" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1999" s="3" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B1999" s="3" t="s">
+        <v>3129</v>
+      </c>
+      <c r="C1999" t="str">
+        <f t="shared" si="5"/>
+        <v>Juri Di Rocco</v>
+      </c>
+      <c r="D1999" s="3" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E1999" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2000" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2000" s="3" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C2000" t="str">
+        <f t="shared" si="5"/>
+        <v>Antonio Garcia-Dominguez</v>
+      </c>
+      <c r="D2000" s="3" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E2000" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2001" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B2001" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C2001" t="str">
+        <f t="shared" si="5"/>
+        <v>Sven Keidel</v>
+      </c>
+      <c r="D2001" s="3" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E2001" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2002" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="B2002" s="3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C2002" t="str">
+        <f t="shared" si="5"/>
+        <v>Manuel Leduc</v>
+      </c>
+      <c r="D2002" s="3" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E2002" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2003" s="3" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B2003" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C2003" t="str">
+        <f t="shared" si="5"/>
+        <v>Daniel-Jesus Munoz</v>
+      </c>
+      <c r="D2003" s="3" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E2003" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2004" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2004" s="3" t="s">
+        <v>3133</v>
+      </c>
+      <c r="C2004" t="str">
+        <f t="shared" si="5"/>
+        <v>Johannes Mey</v>
+      </c>
+      <c r="D2004" s="3" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E2004" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2005" s="3" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B2005" s="3" t="s">
+        <v>3031</v>
+      </c>
+      <c r="C2005" t="str">
+        <f t="shared" si="5"/>
+        <v>Krishna Narasimhan</v>
+      </c>
+      <c r="D2005" s="3" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E2005" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2006" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="B2006" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="C2006" t="str">
+        <f t="shared" si="5"/>
+        <v>Emma Tosch</v>
+      </c>
+      <c r="D2006" s="3" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E2006" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2007" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B2007" s="3" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C2007" t="str">
+        <f t="shared" si="5"/>
+        <v>Michele Tucci</v>
+      </c>
+      <c r="D2007" s="3" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E2007" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2008" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="B2008" s="3" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C2008" t="str">
+        <f t="shared" si="5"/>
+        <v>Jesper Oqvist</v>
+      </c>
+      <c r="D2008" s="3" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E2008" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2009" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="B2009" s="3" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C2009" t="str">
+        <f t="shared" si="5"/>
+        <v>Lukas Diekmann</v>
+      </c>
+      <c r="D2009" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E2009" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2010" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B2010" s="3" t="s">
+        <v>3130</v>
+      </c>
+      <c r="C2010" t="str">
+        <f t="shared" si="5"/>
+        <v>Antonio Garcia-Dominguez</v>
+      </c>
+      <c r="D2010" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E2010" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2011" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="B2011" s="3" t="s">
+        <v>3124</v>
+      </c>
+      <c r="C2011" t="str">
+        <f t="shared" si="5"/>
+        <v>Hugo Bruneliere</v>
+      </c>
+      <c r="D2011" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E2011" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2012" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2012" s="3" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C2012" t="str">
+        <f t="shared" si="5"/>
+        <v>David Corral-Plaza</v>
+      </c>
+      <c r="D2012" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E2012" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2013" s="3" t="s">
+        <v>3136</v>
+      </c>
+      <c r="B2013" s="3" t="s">
+        <v>3137</v>
+      </c>
+      <c r="C2013" t="str">
+        <f t="shared" si="5"/>
+        <v>Fola-Dami Eyitemi</v>
+      </c>
+      <c r="D2013" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E2013" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2014" s="3" t="s">
+        <v>3138</v>
+      </c>
+      <c r="B2014" s="3" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C2014" t="str">
+        <f t="shared" si="5"/>
+        <v>Abdulhakeem Ibrahim</v>
+      </c>
+      <c r="D2014" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E2014" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2015" s="3" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B2015" s="3" t="s">
+        <v>3140</v>
+      </c>
+      <c r="C2015" t="str">
+        <f t="shared" si="5"/>
+        <v>Matteo Marra</v>
+      </c>
+      <c r="D2015" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E2015" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2016" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2016" s="3" t="s">
+        <v>3133</v>
+      </c>
+      <c r="C2016" t="str">
+        <f t="shared" si="5"/>
+        <v>Johannes Mey</v>
+      </c>
+      <c r="D2016" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E2016" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2017" s="3" t="s">
+        <v>3131</v>
+      </c>
+      <c r="B2017" s="3" t="s">
+        <v>3132</v>
+      </c>
+      <c r="C2017" t="str">
+        <f t="shared" si="5"/>
+        <v>Daniel-Jesus Munoz</v>
+      </c>
+      <c r="D2017" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E2017" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2018" s="3" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B2018" s="3" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C2018" t="str">
+        <f t="shared" si="5"/>
+        <v>Fabio Niephaus</v>
+      </c>
+      <c r="D2018" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E2018" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2019" s="3" t="s">
+        <v>3128</v>
+      </c>
+      <c r="B2019" s="3" t="s">
+        <v>3129</v>
+      </c>
+      <c r="C2019" t="str">
+        <f t="shared" si="5"/>
+        <v>Juri Di Rocco</v>
+      </c>
+      <c r="D2019" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E2019" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2020" s="3" t="s">
+        <v>3142</v>
+      </c>
+      <c r="B2020" s="3" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C2020" t="str">
+        <f t="shared" si="5"/>
+        <v>Bello Shehu</v>
+      </c>
+      <c r="D2020" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E2020" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2021" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B2021" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C2021" t="str">
+        <f t="shared" si="5"/>
+        <v>Quentin Stiévenart</v>
+      </c>
+      <c r="D2021" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E2021" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2022" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B2022" s="3" t="s">
+        <v>2633</v>
+      </c>
+      <c r="C2022" t="str">
+        <f t="shared" si="5"/>
+        <v>Michele Tucci</v>
+      </c>
+      <c r="D2022" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E2022" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2023" s="3" t="s">
+        <v>3144</v>
+      </c>
+      <c r="B2023" s="3" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C2023" t="str">
+        <f t="shared" si="5"/>
+        <v>Kevin Jesús Valle-Gómez</v>
+      </c>
+      <c r="D2023" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E2023" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2024" s="3" t="s">
+        <v>3146</v>
+      </c>
+      <c r="B2024" s="3" t="s">
+        <v>3147</v>
+      </c>
+      <c r="C2024" t="str">
+        <f t="shared" si="5"/>
+        <v>Alfa Yohannis</v>
+      </c>
+      <c r="D2024" s="3" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E2024" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2025" t="s">
+        <v>3180</v>
+      </c>
+      <c r="B2025" t="s">
+        <v>3148</v>
+      </c>
+      <c r="C2025" t="str">
+        <f t="shared" si="5"/>
+        <v>Amir Hossein Nodehi Sabet</v>
+      </c>
+      <c r="D2025" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2025" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2026" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B2026" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C2026" t="str">
+        <f t="shared" si="5"/>
+        <v>Brian Demsky</v>
+      </c>
+      <c r="D2026" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2026" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2027" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B2027" t="s">
+        <v>3150</v>
+      </c>
+      <c r="C2027" t="str">
+        <f t="shared" si="5"/>
+        <v>Connor Holmes</v>
+      </c>
+      <c r="D2027" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2027" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2028" t="s">
+        <v>707</v>
+      </c>
+      <c r="B2028" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C2028" t="str">
+        <f t="shared" si="5"/>
+        <v>George Bisbas</v>
+      </c>
+      <c r="D2028" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2028" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2029" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B2029" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C2029" t="str">
+        <f t="shared" si="5"/>
+        <v>Harry Xu</v>
+      </c>
+      <c r="D2029" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2029" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2030" t="s">
+        <v>3152</v>
+      </c>
+      <c r="B2030" t="s">
+        <v>619</v>
+      </c>
+      <c r="C2030" t="str">
+        <f t="shared" si="5"/>
+        <v>Heehoon Kim</v>
+      </c>
+      <c r="D2030" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2030" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2031" t="s">
+        <v>3177</v>
+      </c>
+      <c r="B2031" t="s">
+        <v>3153</v>
+      </c>
+      <c r="C2031" t="str">
+        <f t="shared" si="5"/>
+        <v>Herbert Alan Beadle</v>
+      </c>
+      <c r="D2031" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2031" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2032" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2032" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C2032" t="str">
+        <f t="shared" si="5"/>
+        <v>Jessica Ray</v>
+      </c>
+      <c r="D2032" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2032" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2033" t="s">
+        <v>3154</v>
+      </c>
+      <c r="B2033" t="s">
+        <v>3155</v>
+      </c>
+      <c r="C2033" t="str">
+        <f t="shared" si="5"/>
+        <v>Kaiming Ouyang</v>
+      </c>
+      <c r="D2033" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2033" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2034" t="s">
+        <v>3156</v>
+      </c>
+      <c r="B2034" t="s">
+        <v>438</v>
+      </c>
+      <c r="C2034" t="str">
+        <f t="shared" si="5"/>
+        <v>Karthik Murthy</v>
+      </c>
+      <c r="D2034" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2034" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2035" t="s">
+        <v>3157</v>
+      </c>
+      <c r="B2035" t="s">
+        <v>3158</v>
+      </c>
+      <c r="C2035" t="str">
+        <f t="shared" si="5"/>
+        <v>Kyle Singer</v>
+      </c>
+      <c r="D2035" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2035" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2036" t="s">
+        <v>3159</v>
+      </c>
+      <c r="B2036" t="s">
+        <v>3160</v>
+      </c>
+      <c r="C2036" t="str">
+        <f t="shared" si="5"/>
+        <v>Lev Mukhanov</v>
+      </c>
+      <c r="D2036" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2036" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2037" t="s">
+        <v>3161</v>
+      </c>
+      <c r="B2037" t="s">
+        <v>3162</v>
+      </c>
+      <c r="C2037" t="str">
+        <f t="shared" si="5"/>
+        <v>Loc Hoang</v>
+      </c>
+      <c r="D2037" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2037" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2038" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2038" t="s">
+        <v>607</v>
+      </c>
+      <c r="C2038" t="str">
+        <f t="shared" si="5"/>
+        <v>Michael Davis</v>
+      </c>
+      <c r="D2038" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2038" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2039" t="s">
+        <v>665</v>
+      </c>
+      <c r="B2039" t="s">
+        <v>3163</v>
+      </c>
+      <c r="C2039" t="str">
+        <f t="shared" si="5"/>
+        <v>Mohammad Monil</v>
+      </c>
+      <c r="D2039" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2039" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2040" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B2040" t="s">
+        <v>3164</v>
+      </c>
+      <c r="C2040" t="str">
+        <f t="shared" si="5"/>
+        <v>Mohsen Koohi Esfahani</v>
+      </c>
+      <c r="D2040" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2040" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2041" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B2041" t="s">
+        <v>3165</v>
+      </c>
+      <c r="C2041" t="str">
+        <f t="shared" si="5"/>
+        <v>Muhammad Aditya Sasongko</v>
+      </c>
+      <c r="D2041" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2041" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2042" t="s">
+        <v>2961</v>
+      </c>
+      <c r="B2042" t="s">
+        <v>604</v>
+      </c>
+      <c r="C2042" t="str">
+        <f t="shared" si="5"/>
+        <v>Qi Zhao</v>
+      </c>
+      <c r="D2042" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2042" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2043" t="s">
+        <v>3166</v>
+      </c>
+      <c r="B2043" t="s">
+        <v>2327</v>
+      </c>
+      <c r="C2043" t="str">
+        <f t="shared" si="5"/>
+        <v>Shigeyuki Sato</v>
+      </c>
+      <c r="D2043" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2043" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2044" t="s">
+        <v>3167</v>
+      </c>
+      <c r="B2044" t="s">
+        <v>3168</v>
+      </c>
+      <c r="C2044" t="str">
+        <f t="shared" ref="C2044:C2050" si="6">_xlfn.CONCAT(A2044," ",B2044)</f>
+        <v>Shu-Mei Tseng</v>
+      </c>
+      <c r="D2044" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2044" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2045" t="s">
+        <v>3169</v>
+      </c>
+      <c r="B2045" t="s">
+        <v>3170</v>
+      </c>
+      <c r="C2045" t="str">
+        <f t="shared" si="6"/>
+        <v>Tong Geng</v>
+      </c>
+      <c r="D2045" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2045" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2046" t="s">
+        <v>3171</v>
+      </c>
+      <c r="B2046" t="s">
+        <v>3172</v>
+      </c>
+      <c r="C2046" t="str">
+        <f t="shared" si="6"/>
+        <v>Vishwesh Jatala</v>
+      </c>
+      <c r="D2046" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2046" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2047" t="s">
+        <v>3173</v>
+      </c>
+      <c r="B2047" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C2047" t="str">
+        <f t="shared" si="6"/>
+        <v>Wentao Cai</v>
+      </c>
+      <c r="D2047" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2047" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2048" t="s">
+        <v>3174</v>
+      </c>
+      <c r="B2048" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2048" t="str">
+        <f t="shared" si="6"/>
+        <v>Yiyuan Li</v>
+      </c>
+      <c r="D2048" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2048" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2049" t="s">
+        <v>3175</v>
+      </c>
+      <c r="B2049" t="s">
+        <v>655</v>
+      </c>
+      <c r="C2049" t="str">
+        <f t="shared" si="6"/>
+        <v>Yuyang Jin</v>
+      </c>
+      <c r="D2049" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2049" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2050" t="s">
+        <v>3176</v>
+      </c>
+      <c r="B2050" t="s">
+        <v>2987</v>
+      </c>
+      <c r="C2050" t="str">
+        <f t="shared" si="6"/>
+        <v>Zhengyi Qiu</v>
+      </c>
+      <c r="D2050" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E2050" t="s">
+        <v>322</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F1658" xr:uid="{A07A7F3E-A162-9C43-A191-21FA2612E42C}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>